--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2623778.692675155</v>
+        <v>-2624491.297149196</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>188.5623770505815</v>
       </c>
       <c r="F11" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.5623770505815</v>
+        <v>124.0153655410741</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384203</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718777</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.17968824550869</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>86.88778738512231</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.4530649701509</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,28 +1449,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.188502199810728</v>
+        <v>12.03642063988035</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>71.48763854657007</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851671</v>
+        <v>13.25780256851665</v>
       </c>
       <c r="T12" t="n">
-        <v>36.6405496213481</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437498</v>
+        <v>58.89840834437492</v>
       </c>
       <c r="V12" t="n">
-        <v>62.31927159084705</v>
+        <v>62.31927159084699</v>
       </c>
       <c r="W12" t="n">
-        <v>88.3749342524564</v>
+        <v>88.37493425245634</v>
       </c>
       <c r="X12" t="n">
-        <v>38.98326511491541</v>
+        <v>38.98326511491535</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.05463680947042</v>
+        <v>45.05463680947037</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650167</v>
+        <v>25.09353465650161</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412747</v>
+        <v>57.10576830412742</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605263</v>
+        <v>45.43126511605257</v>
       </c>
       <c r="U13" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226097</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989471</v>
+        <v>66.77936585989465</v>
       </c>
       <c r="W13" t="n">
         <v>111.9810577647801</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368734</v>
+        <v>43.58980608368728</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961323</v>
+        <v>38.81162348961317</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.4425103176721</v>
+        <v>40.39858191700598</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>155.9655052029063</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384203</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.5307887271877</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550874</v>
+        <v>49.17968824550869</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065509</v>
+        <v>44.13476116065503</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673105</v>
+        <v>71.82086528673099</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.4530649701509</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810728</v>
+        <v>9.188502199810671</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>44.92748875416422</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>67.96135985034496</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.25780256851671</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="T15" t="n">
-        <v>188.5623770505815</v>
+        <v>36.64054962134804</v>
       </c>
       <c r="U15" t="n">
-        <v>58.89840834437498</v>
+        <v>58.89840834437492</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084705</v>
+        <v>62.31927159084699</v>
       </c>
       <c r="W15" t="n">
-        <v>88.3749342524564</v>
+        <v>88.37493425245634</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491541</v>
+        <v>38.98326511491535</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.05463680947042</v>
+        <v>45.05463680947037</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650167</v>
+        <v>25.09353465650161</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412747</v>
+        <v>57.10576830412742</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605263</v>
+        <v>45.43126511605257</v>
       </c>
       <c r="U16" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226097</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989471</v>
+        <v>66.77936585989465</v>
       </c>
       <c r="W16" t="n">
         <v>111.9810577647801</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368734</v>
+        <v>43.58980608368728</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961323</v>
+        <v>38.81162348961317</v>
       </c>
     </row>
     <row r="17">
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7337882414754</v>
+        <v>58.89213760006268</v>
       </c>
       <c r="I18" t="n">
-        <v>52.16383611759269</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1980,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="W18" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H20" t="n">
-        <v>49.59336558194013</v>
+        <v>49.59336558194014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>59.77274685329655</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>116.2157585801148</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2400,19 +2400,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>6.913426629573528</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2448,19 +2448,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>188.5623770505815</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>103.0623372755845</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2555,25 +2555,25 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C26" t="n">
-        <v>136.738520713146</v>
+        <v>136.7385207131461</v>
       </c>
       <c r="D26" t="n">
-        <v>124.3051829741945</v>
+        <v>124.3051829741946</v>
       </c>
       <c r="E26" t="n">
         <v>158.0119353936034</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7322729719807</v>
+        <v>189.7322729719808</v>
       </c>
       <c r="G26" t="n">
-        <v>205.370860277572</v>
+        <v>205.3708602775721</v>
       </c>
       <c r="H26" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036446</v>
+        <v>27.52983825036451</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203116</v>
+        <v>14.04236090203122</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177495</v>
+        <v>8.997433817177562</v>
       </c>
       <c r="U26" t="n">
-        <v>36.68353794325347</v>
+        <v>36.68353794325353</v>
       </c>
       <c r="V26" t="n">
-        <v>107.4128069411192</v>
+        <v>107.4128069411193</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4294871577341</v>
+        <v>124.4294871577342</v>
       </c>
       <c r="X26" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8185907504171</v>
+        <v>168.8185907504172</v>
       </c>
     </row>
     <row r="27">
@@ -2634,10 +2634,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.3112722403421</v>
+        <v>15.96543579255453</v>
       </c>
       <c r="T27" t="n">
-        <v>1.503222277870521</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U27" t="n">
-        <v>23.7610810008974</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V27" t="n">
-        <v>27.18194424736947</v>
+        <v>27.18194424736953</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.23760690897888</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>3.845937771437889</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.917309465992844</v>
+        <v>9.917309465992901</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096064989</v>
+        <v>21.96844096064995</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257505</v>
+        <v>10.29393777257511</v>
       </c>
       <c r="U28" t="n">
-        <v>75.18957207913222</v>
+        <v>75.18957207913228</v>
       </c>
       <c r="V28" t="n">
-        <v>31.64203851641713</v>
+        <v>31.64203851641719</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130255</v>
+        <v>76.84373042130261</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209756</v>
+        <v>8.452478740209813</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135646</v>
+        <v>3.674296146135703</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C29" t="n">
-        <v>136.738520713146</v>
+        <v>136.7385207131461</v>
       </c>
       <c r="D29" t="n">
-        <v>124.3051829741945</v>
+        <v>124.3051829741946</v>
       </c>
       <c r="E29" t="n">
         <v>158.0119353936034</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7322729719807</v>
+        <v>189.7322729719808</v>
       </c>
       <c r="G29" t="n">
-        <v>205.370860277572</v>
+        <v>205.3708602775721</v>
       </c>
       <c r="H29" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036446</v>
+        <v>27.52983825036452</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203116</v>
+        <v>14.04236090203122</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177495</v>
+        <v>8.997433817177562</v>
       </c>
       <c r="U29" t="n">
-        <v>36.68353794325347</v>
+        <v>36.68353794325353</v>
       </c>
       <c r="V29" t="n">
-        <v>107.4128069411192</v>
+        <v>107.4128069411193</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4294871577341</v>
+        <v>124.4294871577342</v>
       </c>
       <c r="X29" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8185907504171</v>
+        <v>168.8185907504172</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>95.41768285545405</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668513</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.503222277870521</v>
+        <v>79.2530213533156</v>
       </c>
       <c r="U30" t="n">
-        <v>23.7610810008974</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V30" t="n">
-        <v>27.18194424736947</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.23760690897882</v>
+        <v>53.23760690897888</v>
       </c>
       <c r="X30" t="n">
-        <v>3.845937771437832</v>
+        <v>3.845937771437889</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.917309465992844</v>
+        <v>9.917309465992901</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064989</v>
+        <v>21.96844096064995</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257505</v>
+        <v>10.29393777257511</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913222</v>
+        <v>75.18957207913228</v>
       </c>
       <c r="V31" t="n">
-        <v>31.64203851641713</v>
+        <v>31.64203851641719</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130255</v>
+        <v>76.84373042130261</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209756</v>
+        <v>8.452478740209813</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135646</v>
+        <v>3.674296146135703</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>160.6202637098006</v>
+        <v>160.6202637098005</v>
       </c>
       <c r="C32" t="n">
         <v>136.738520713146</v>
@@ -3047,7 +3047,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036445</v>
+        <v>27.52983825036443</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203116</v>
+        <v>14.04236090203114</v>
       </c>
       <c r="T32" t="n">
-        <v>8.997433817177505</v>
+        <v>8.997433817177477</v>
       </c>
       <c r="U32" t="n">
-        <v>36.68353794325347</v>
+        <v>36.68353794325344</v>
       </c>
       <c r="V32" t="n">
         <v>107.4128069411192</v>
@@ -3092,7 +3092,7 @@
         <v>124.4294871577341</v>
       </c>
       <c r="X32" t="n">
-        <v>146.3157376266734</v>
+        <v>146.3157376266733</v>
       </c>
       <c r="Y32" t="n">
         <v>168.8185907504171</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>11.89613542384878</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870521</v>
+        <v>1.503222277870492</v>
       </c>
       <c r="U33" t="n">
-        <v>98.32252383878003</v>
+        <v>23.76108100089737</v>
       </c>
       <c r="V33" t="n">
-        <v>27.18194424736947</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.23760690897882</v>
+        <v>53.23760690897879</v>
       </c>
       <c r="X33" t="n">
-        <v>3.845937771437832</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.917309465992844</v>
+        <v>9.917309465992815</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064989</v>
+        <v>21.96844096064986</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257505</v>
+        <v>10.29393777257502</v>
       </c>
       <c r="U34" t="n">
-        <v>75.18957207913222</v>
+        <v>75.18957207913219</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641713</v>
+        <v>31.6420385164171</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130255</v>
+        <v>76.84373042130252</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209756</v>
+        <v>8.452478740209727</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135646</v>
+        <v>3.674296146135617</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14582053632154</v>
+        <v>78.14582053632148</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71248279737</v>
+        <v>65.71248279736994</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41923521677887</v>
+        <v>99.41923521677882</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1395727951562</v>
+        <v>131.1395727951561</v>
       </c>
       <c r="G35" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H35" t="n">
-        <v>74.95828052914408</v>
+        <v>74.95828052914402</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82010676429474</v>
+        <v>48.82010676429468</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83678698090961</v>
+        <v>65.83678698090955</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72303744984885</v>
+        <v>87.72303744984879</v>
       </c>
       <c r="Y35" t="n">
         <v>110.2258905735926</v>
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>133.530981239165</v>
       </c>
       <c r="E36" t="n">
-        <v>112.5018041249115</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.5968719023077</v>
+        <v>16.59687190230765</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25103024447805</v>
+        <v>18.25103024447799</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14582053632154</v>
+        <v>78.14582053632148</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71248279737</v>
+        <v>65.71248279736994</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41923521677887</v>
+        <v>99.41923521677882</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1395727951562</v>
+        <v>131.1395727951561</v>
       </c>
       <c r="G38" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H38" t="n">
-        <v>74.95828052914408</v>
+        <v>74.95828052914402</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82010676429474</v>
+        <v>48.82010676429468</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83678698090961</v>
+        <v>65.83678698090955</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72303744984885</v>
+        <v>87.72303744984879</v>
       </c>
       <c r="Y38" t="n">
         <v>110.2258905735926</v>
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>168.5117342227522</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668513</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>1.115811270094873</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.5968719023077</v>
+        <v>16.59687190230765</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25103024447805</v>
+        <v>18.25103024447799</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3828,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>100.9523334945675</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>89.09664991138517</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>175.8440723110699</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>216.2153601714893</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>25.70776865861436</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>649.7863000080735</v>
+        <v>330.8200836909716</v>
       </c>
       <c r="C11" t="n">
-        <v>649.7863000080735</v>
+        <v>330.8200836909716</v>
       </c>
       <c r="D11" t="n">
-        <v>649.7863000080735</v>
+        <v>330.8200836909716</v>
       </c>
       <c r="E11" t="n">
-        <v>459.3192524822335</v>
+        <v>140.3530361651315</v>
       </c>
       <c r="F11" t="n">
-        <v>268.8522049563936</v>
+        <v>140.3530361651315</v>
       </c>
       <c r="G11" t="n">
-        <v>78.38515743055363</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H11" t="n">
-        <v>78.38515743055363</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I11" t="n">
         <v>15.08499016404652</v>
@@ -5045,46 +5045,46 @@
         <v>15.08499016404652</v>
       </c>
       <c r="L11" t="n">
-        <v>61.85832839434048</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="M11" t="n">
-        <v>248.5350816744162</v>
+        <v>282.682054167274</v>
       </c>
       <c r="N11" t="n">
-        <v>323.9223316076543</v>
+        <v>469.3588074473497</v>
       </c>
       <c r="O11" t="n">
-        <v>504.8287151602034</v>
+        <v>656.0355607274255</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4818518381373</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="Q11" t="n">
         <v>754.2495082023262</v>
       </c>
       <c r="R11" t="n">
-        <v>737.5517418112273</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="S11" t="n">
-        <v>737.5517418112273</v>
+        <v>704.5730554290851</v>
       </c>
       <c r="T11" t="n">
-        <v>737.5517418112273</v>
+        <v>704.5730554290851</v>
       </c>
       <c r="U11" t="n">
-        <v>737.5517418112273</v>
+        <v>704.5730554290851</v>
       </c>
       <c r="V11" t="n">
-        <v>649.7863000080735</v>
+        <v>704.5730554290851</v>
       </c>
       <c r="W11" t="n">
-        <v>649.7863000080735</v>
+        <v>704.5730554290851</v>
       </c>
       <c r="X11" t="n">
-        <v>649.7863000080735</v>
+        <v>521.2871312168115</v>
       </c>
       <c r="Y11" t="n">
-        <v>649.7863000080735</v>
+        <v>521.2871312168115</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>407.2506513316907</v>
+        <v>253.7942599890311</v>
       </c>
       <c r="C12" t="n">
-        <v>397.9693359783465</v>
+        <v>241.6362593426873</v>
       </c>
       <c r="D12" t="n">
-        <v>397.9693359783465</v>
+        <v>241.6362593426873</v>
       </c>
       <c r="E12" t="n">
-        <v>397.9693359783465</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="F12" t="n">
-        <v>237.5416196955906</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="G12" t="n">
-        <v>87.29472606967286</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="H12" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="I12" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="J12" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635112</v>
+        <v>53.07705719635116</v>
       </c>
       <c r="L12" t="n">
         <v>170.4486221681694</v>
@@ -5145,25 +5145,25 @@
         <v>754.2495082023262</v>
       </c>
       <c r="S12" t="n">
-        <v>740.8577884361476</v>
+        <v>740.8577884361478</v>
       </c>
       <c r="T12" t="n">
-        <v>703.8471322529678</v>
+        <v>550.3907409103078</v>
       </c>
       <c r="U12" t="n">
-        <v>644.3537904909729</v>
+        <v>490.897399148313</v>
       </c>
       <c r="V12" t="n">
-        <v>581.405031308299</v>
+        <v>427.9486399656392</v>
       </c>
       <c r="W12" t="n">
-        <v>492.1374209522825</v>
+        <v>338.6810296096227</v>
       </c>
       <c r="X12" t="n">
-        <v>452.7603854826709</v>
+        <v>299.3039941400112</v>
       </c>
       <c r="Y12" t="n">
-        <v>407.2506513316907</v>
+        <v>253.7942599890311</v>
       </c>
     </row>
     <row r="13">
@@ -5191,55 +5191,55 @@
         <v>15.08499016404652</v>
       </c>
       <c r="H13" t="n">
-        <v>15.08499016404652</v>
+        <v>27.46651600465426</v>
       </c>
       <c r="I13" t="n">
-        <v>15.08499016404652</v>
+        <v>27.46651600465426</v>
       </c>
       <c r="J13" t="n">
-        <v>15.08499016404652</v>
+        <v>84.98620707126589</v>
       </c>
       <c r="K13" t="n">
-        <v>125.2889991250442</v>
+        <v>195.1902160322636</v>
       </c>
       <c r="L13" t="n">
-        <v>207.426641885321</v>
+        <v>339.9284554875216</v>
       </c>
       <c r="M13" t="n">
-        <v>359.0316886375214</v>
+        <v>339.9284554875216</v>
       </c>
       <c r="N13" t="n">
-        <v>519.2459201612859</v>
+        <v>500.1426870112861</v>
       </c>
       <c r="O13" t="n">
-        <v>519.2459201612859</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="P13" t="n">
-        <v>519.2459201612859</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612859</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577488</v>
+        <v>493.8989154577484</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111554</v>
+        <v>436.2163212111551</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272639</v>
+        <v>390.3261544272636</v>
       </c>
       <c r="U13" t="n">
-        <v>278.8848418791732</v>
+        <v>278.884841879173</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701887</v>
+        <v>211.4309369701885</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980468</v>
+        <v>98.31875740980456</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456493</v>
+        <v>54.28865025456488</v>
       </c>
       <c r="Y13" t="n">
         <v>15.08499016404652</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>587.4461600276849</v>
+        <v>226.2838689180386</v>
       </c>
       <c r="C14" t="n">
-        <v>587.4461600276849</v>
+        <v>226.2838689180386</v>
       </c>
       <c r="D14" t="n">
-        <v>426.3931193027636</v>
+        <v>185.4772205170224</v>
       </c>
       <c r="E14" t="n">
-        <v>426.3931193027636</v>
+        <v>185.4772205170224</v>
       </c>
       <c r="F14" t="n">
-        <v>268.8522049563936</v>
+        <v>185.4772205170224</v>
       </c>
       <c r="G14" t="n">
-        <v>78.38515743055365</v>
+        <v>185.4772205170224</v>
       </c>
       <c r="H14" t="n">
-        <v>78.38515743055365</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I14" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="J14" t="n">
-        <v>115.6457740567086</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K14" t="n">
-        <v>285.5745218649278</v>
+        <v>185.0137379722658</v>
       </c>
       <c r="L14" t="n">
-        <v>332.3478600952217</v>
+        <v>371.6904912523415</v>
       </c>
       <c r="M14" t="n">
-        <v>413.2681708183734</v>
+        <v>558.3672445324173</v>
       </c>
       <c r="N14" t="n">
-        <v>599.9449240984492</v>
+        <v>633.7544944656554</v>
       </c>
       <c r="O14" t="n">
-        <v>666.4818518381373</v>
+        <v>668.031178099085</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4818518381373</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="Q14" t="n">
         <v>754.2495082023262</v>
       </c>
       <c r="R14" t="n">
-        <v>754.2495082023262</v>
+        <v>737.5517418112275</v>
       </c>
       <c r="S14" t="n">
-        <v>704.573055429085</v>
+        <v>687.8752890379864</v>
       </c>
       <c r="T14" t="n">
-        <v>659.9924886001404</v>
+        <v>643.2947222090419</v>
       </c>
       <c r="U14" t="n">
-        <v>587.4461600276849</v>
+        <v>570.7483936365866</v>
       </c>
       <c r="V14" t="n">
-        <v>587.4461600276849</v>
+        <v>570.7483936365866</v>
       </c>
       <c r="W14" t="n">
-        <v>587.4461600276849</v>
+        <v>409.5697931303122</v>
       </c>
       <c r="X14" t="n">
-        <v>587.4461600276849</v>
+        <v>226.2838689180386</v>
       </c>
       <c r="Y14" t="n">
-        <v>587.4461600276849</v>
+        <v>226.2838689180386</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>185.146421756359</v>
+        <v>230.1753235720296</v>
       </c>
       <c r="C15" t="n">
-        <v>175.8651064030148</v>
+        <v>220.8940082186855</v>
       </c>
       <c r="D15" t="n">
-        <v>15.08499016404652</v>
+        <v>220.8940082186855</v>
       </c>
       <c r="E15" t="n">
-        <v>15.08499016404652</v>
+        <v>220.8940082186855</v>
       </c>
       <c r="F15" t="n">
-        <v>15.08499016404652</v>
+        <v>60.46629193592958</v>
       </c>
       <c r="G15" t="n">
-        <v>15.08499016404652</v>
+        <v>60.46629193592958</v>
       </c>
       <c r="H15" t="n">
-        <v>15.08499016404652</v>
+        <v>60.46629193592958</v>
       </c>
       <c r="I15" t="n">
         <v>15.08499016404652</v>
@@ -5358,16 +5358,16 @@
         <v>15.08499016404652</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635115</v>
       </c>
       <c r="L15" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681694</v>
       </c>
       <c r="M15" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486675</v>
       </c>
       <c r="N15" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O15" t="n">
         <v>670.5904072110302</v>
@@ -5379,28 +5379,28 @@
         <v>754.2495082023262</v>
       </c>
       <c r="R15" t="n">
-        <v>685.6016699696545</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="S15" t="n">
-        <v>672.209950203476</v>
+        <v>563.7824606764863</v>
       </c>
       <c r="T15" t="n">
-        <v>481.742902677636</v>
+        <v>526.7718044933064</v>
       </c>
       <c r="U15" t="n">
-        <v>422.249560915641</v>
+        <v>467.2784627313115</v>
       </c>
       <c r="V15" t="n">
-        <v>359.3008017329673</v>
+        <v>404.3297035486378</v>
       </c>
       <c r="W15" t="n">
-        <v>270.0331913769507</v>
+        <v>315.0620931926213</v>
       </c>
       <c r="X15" t="n">
-        <v>230.6561559073392</v>
+        <v>275.6850577230098</v>
       </c>
       <c r="Y15" t="n">
-        <v>185.146421756359</v>
+        <v>230.1753235720296</v>
       </c>
     </row>
     <row r="16">
@@ -5425,58 +5425,58 @@
         <v>15.08499016404652</v>
       </c>
       <c r="G16" t="n">
-        <v>24.61772503589646</v>
+        <v>24.61772503589652</v>
       </c>
       <c r="H16" t="n">
-        <v>24.61772503589646</v>
+        <v>36.99925087650426</v>
       </c>
       <c r="I16" t="n">
-        <v>24.61772503589646</v>
+        <v>50.34565272541464</v>
       </c>
       <c r="J16" t="n">
-        <v>24.61772503589646</v>
+        <v>107.8653437920263</v>
       </c>
       <c r="K16" t="n">
-        <v>134.8217339968942</v>
+        <v>184.4302999517</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8217339968942</v>
+        <v>329.168539406958</v>
       </c>
       <c r="M16" t="n">
-        <v>134.8217339968942</v>
+        <v>329.168539406958</v>
       </c>
       <c r="N16" t="n">
-        <v>295.0359655206586</v>
+        <v>329.168539406958</v>
       </c>
       <c r="O16" t="n">
-        <v>400.575332951439</v>
+        <v>468.6318884260457</v>
       </c>
       <c r="P16" t="n">
-        <v>519.2459201612859</v>
+        <v>468.6318884260457</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612859</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577488</v>
+        <v>493.8989154577484</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111554</v>
+        <v>436.2163212111551</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272639</v>
+        <v>390.3261544272636</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791732</v>
+        <v>278.884841879173</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701887</v>
+        <v>211.4309369701885</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980468</v>
+        <v>98.31875740980456</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456493</v>
+        <v>54.28865025456488</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404652</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340407</v>
+        <v>463.5335379340404</v>
       </c>
       <c r="C17" t="n">
-        <v>410.219491884427</v>
+        <v>410.2194918844266</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438552</v>
+        <v>369.464372843855</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372139</v>
+        <v>294.6620291372137</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019088</v>
+        <v>187.8189404019085</v>
       </c>
       <c r="G17" t="n">
         <v>65.17929883267293</v>
@@ -5510,55 +5510,55 @@
         <v>15.08499016404652</v>
       </c>
       <c r="I17" t="n">
-        <v>15.08499016404652</v>
+        <v>70.94848926897387</v>
       </c>
       <c r="J17" t="n">
-        <v>15.08499016404652</v>
+        <v>70.94848926897387</v>
       </c>
       <c r="K17" t="n">
-        <v>15.08499016404652</v>
+        <v>72.7253262501246</v>
       </c>
       <c r="L17" t="n">
-        <v>61.85832839434048</v>
+        <v>119.4986644804185</v>
       </c>
       <c r="M17" t="n">
-        <v>248.5350816744162</v>
+        <v>200.4189752035703</v>
       </c>
       <c r="N17" t="n">
-        <v>435.2118349544919</v>
+        <v>275.8062251368083</v>
       </c>
       <c r="O17" t="n">
-        <v>469.4885185879215</v>
+        <v>462.4829784168841</v>
       </c>
       <c r="P17" t="n">
-        <v>656.1652718679973</v>
+        <v>462.4829784168841</v>
       </c>
       <c r="Q17" t="n">
-        <v>656.1652718679973</v>
+        <v>462.4829784168841</v>
       </c>
       <c r="R17" t="n">
-        <v>656.1652718679973</v>
+        <v>564.0214906197991</v>
       </c>
       <c r="S17" t="n">
-        <v>725.3813735477746</v>
+        <v>633.2375922995765</v>
       </c>
       <c r="T17" t="n">
-        <v>725.3813735477746</v>
+        <v>707.4481717933589</v>
       </c>
       <c r="U17" t="n">
         <v>754.2495082023262</v>
       </c>
       <c r="V17" t="n">
-        <v>730.5573952557697</v>
+        <v>730.5573952557693</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338448</v>
+        <v>689.6767164338441</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059206</v>
+        <v>626.6887139059201</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.970556707548</v>
+        <v>540.9705567075475</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>194.7795602237113</v>
+        <v>385.2466077495512</v>
       </c>
       <c r="C18" t="n">
-        <v>194.7795602237113</v>
+        <v>385.2466077495512</v>
       </c>
       <c r="D18" t="n">
-        <v>194.7795602237113</v>
+        <v>385.2466077495512</v>
       </c>
       <c r="E18" t="n">
-        <v>194.7795602237113</v>
+        <v>385.2466077495512</v>
       </c>
       <c r="F18" t="n">
-        <v>194.7795602237113</v>
+        <v>224.8188914667953</v>
       </c>
       <c r="G18" t="n">
-        <v>194.7795602237113</v>
+        <v>74.57199784087751</v>
       </c>
       <c r="H18" t="n">
-        <v>67.77573371717045</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I18" t="n">
         <v>15.08499016404652</v>
@@ -5595,13 +5595,13 @@
         <v>15.08499016404652</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L18" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M18" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486675</v>
       </c>
       <c r="N18" t="n">
         <v>538.8471199287433</v>
@@ -5628,16 +5628,16 @@
         <v>754.2495082023262</v>
       </c>
       <c r="V18" t="n">
-        <v>754.2495082023262</v>
+        <v>563.7824606764863</v>
       </c>
       <c r="W18" t="n">
         <v>563.7824606764863</v>
       </c>
       <c r="X18" t="n">
-        <v>373.3154131506464</v>
+        <v>563.7824606764863</v>
       </c>
       <c r="Y18" t="n">
-        <v>373.3154131506464</v>
+        <v>563.7824606764863</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340404</v>
+        <v>463.533537934041</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844266</v>
+        <v>410.2194918844271</v>
       </c>
       <c r="D20" t="n">
-        <v>369.464372843855</v>
+        <v>369.4643728438553</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372137</v>
+        <v>294.6620291372139</v>
       </c>
       <c r="F20" t="n">
         <v>187.8189404019085</v>
       </c>
       <c r="G20" t="n">
-        <v>65.17929883267293</v>
+        <v>65.17929883267294</v>
       </c>
       <c r="H20" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="I20" t="n">
-        <v>15.08499016404652</v>
+        <v>70.94848926897387</v>
       </c>
       <c r="J20" t="n">
-        <v>15.08499016404652</v>
+        <v>70.94848926897387</v>
       </c>
       <c r="K20" t="n">
-        <v>201.7617434441223</v>
+        <v>243.479940132817</v>
       </c>
       <c r="L20" t="n">
-        <v>388.438496724198</v>
+        <v>290.253278363111</v>
       </c>
       <c r="M20" t="n">
-        <v>469.3588074473497</v>
+        <v>371.1735890862627</v>
       </c>
       <c r="N20" t="n">
-        <v>656.0355607274255</v>
+        <v>446.5608390195007</v>
       </c>
       <c r="O20" t="n">
-        <v>690.3122443608551</v>
+        <v>633.2375922995765</v>
       </c>
       <c r="P20" t="n">
-        <v>690.3122443608551</v>
+        <v>633.2375922995765</v>
       </c>
       <c r="Q20" t="n">
-        <v>754.2495082023262</v>
+        <v>633.2375922995765</v>
       </c>
       <c r="R20" t="n">
-        <v>754.2495082023262</v>
+        <v>633.2375922995765</v>
       </c>
       <c r="S20" t="n">
-        <v>754.2495082023262</v>
+        <v>633.2375922995765</v>
       </c>
       <c r="T20" t="n">
-        <v>754.2495082023262</v>
+        <v>707.4481717933589</v>
       </c>
       <c r="U20" t="n">
         <v>754.2495082023262</v>
       </c>
       <c r="V20" t="n">
-        <v>730.5573952557693</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W20" t="n">
-        <v>689.6767164338441</v>
+        <v>689.6767164338448</v>
       </c>
       <c r="X20" t="n">
-        <v>626.6887139059201</v>
+        <v>626.6887139059206</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.9705567075475</v>
+        <v>540.9705567075482</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>312.9389011776195</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="C21" t="n">
-        <v>123.5266269105832</v>
+        <v>636.8598530708971</v>
       </c>
       <c r="D21" t="n">
-        <v>123.5266269105832</v>
+        <v>476.0797368319288</v>
       </c>
       <c r="E21" t="n">
-        <v>123.5266269105832</v>
+        <v>302.5165329533432</v>
       </c>
       <c r="F21" t="n">
-        <v>123.5266269105832</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="G21" t="n">
-        <v>123.5266269105832</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="H21" t="n">
-        <v>123.5266269105832</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I21" t="n">
         <v>15.08499016404652</v>
@@ -5832,13 +5832,13 @@
         <v>15.08499016404652</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635116</v>
       </c>
       <c r="L21" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681694</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486675</v>
       </c>
       <c r="N21" t="n">
         <v>538.8471199287433</v>
@@ -5859,22 +5859,22 @@
         <v>754.2495082023262</v>
       </c>
       <c r="T21" t="n">
-        <v>563.7824606764863</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="U21" t="n">
-        <v>563.7824606764863</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="V21" t="n">
-        <v>563.7824606764863</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="W21" t="n">
-        <v>373.3154131506464</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="X21" t="n">
-        <v>373.3154131506464</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="Y21" t="n">
-        <v>373.3154131506464</v>
+        <v>754.2495082023262</v>
       </c>
     </row>
     <row r="22">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340407</v>
+        <v>463.533537934041</v>
       </c>
       <c r="C23" t="n">
-        <v>410.219491884427</v>
+        <v>410.2194918844273</v>
       </c>
       <c r="D23" t="n">
-        <v>369.4643728438552</v>
+        <v>369.4643728438555</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372138</v>
+        <v>294.6620291372141</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019085</v>
+        <v>187.8189404019088</v>
       </c>
       <c r="G23" t="n">
-        <v>65.17929883267291</v>
+        <v>65.17929883267293</v>
       </c>
       <c r="H23" t="n">
         <v>15.08499016404652</v>
@@ -5993,46 +5993,46 @@
         <v>70.94848926897387</v>
       </c>
       <c r="L23" t="n">
-        <v>257.6252425490495</v>
+        <v>257.6252425490496</v>
       </c>
       <c r="M23" t="n">
-        <v>338.5455532722012</v>
+        <v>338.5455532722013</v>
       </c>
       <c r="N23" t="n">
-        <v>525.2223065522769</v>
+        <v>413.9328032054394</v>
       </c>
       <c r="O23" t="n">
-        <v>559.4989901857065</v>
+        <v>448.209486838869</v>
       </c>
       <c r="P23" t="n">
-        <v>559.4989901857065</v>
+        <v>462.4829784168841</v>
       </c>
       <c r="Q23" t="n">
-        <v>564.0214906197988</v>
+        <v>462.4829784168841</v>
       </c>
       <c r="R23" t="n">
-        <v>564.0214906197988</v>
+        <v>564.0214906197991</v>
       </c>
       <c r="S23" t="n">
-        <v>633.2375922995761</v>
+        <v>633.2375922995765</v>
       </c>
       <c r="T23" t="n">
-        <v>707.4481717933586</v>
+        <v>707.4481717933589</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557695</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338446</v>
+        <v>689.6767164338448</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059204</v>
+        <v>626.6887139059206</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075479</v>
+        <v>540.9705567075482</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>182.8483656248062</v>
+        <v>452.763426579261</v>
       </c>
       <c r="C24" t="n">
-        <v>182.8483656248062</v>
+        <v>452.763426579261</v>
       </c>
       <c r="D24" t="n">
-        <v>22.06824938583796</v>
+        <v>452.763426579261</v>
       </c>
       <c r="E24" t="n">
-        <v>15.08499016404652</v>
+        <v>452.763426579261</v>
       </c>
       <c r="F24" t="n">
-        <v>15.08499016404652</v>
+        <v>292.3357102965051</v>
       </c>
       <c r="G24" t="n">
-        <v>15.08499016404652</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="H24" t="n">
         <v>15.08499016404652</v>
@@ -6069,49 +6069,49 @@
         <v>15.08499016404652</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635117</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L24" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M24" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486675</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287429</v>
+        <v>538.8471199287433</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110299</v>
+        <v>670.5904072110302</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="Q24" t="n">
-        <v>754.2495082023258</v>
+        <v>747.3338450905399</v>
       </c>
       <c r="R24" t="n">
-        <v>754.2495082023258</v>
+        <v>747.3338450905399</v>
       </c>
       <c r="S24" t="n">
-        <v>754.2495082023258</v>
+        <v>747.3338450905399</v>
       </c>
       <c r="T24" t="n">
-        <v>563.7824606764859</v>
+        <v>747.3338450905399</v>
       </c>
       <c r="U24" t="n">
-        <v>373.3154131506461</v>
+        <v>556.8667975646999</v>
       </c>
       <c r="V24" t="n">
-        <v>373.3154131506461</v>
+        <v>452.763426579261</v>
       </c>
       <c r="W24" t="n">
-        <v>373.3154131506461</v>
+        <v>452.763426579261</v>
       </c>
       <c r="X24" t="n">
-        <v>182.8483656248062</v>
+        <v>452.763426579261</v>
       </c>
       <c r="Y24" t="n">
-        <v>182.8483656248062</v>
+        <v>452.763426579261</v>
       </c>
     </row>
     <row r="25">
@@ -6203,37 +6203,37 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792733</v>
+        <v>882.892440079273</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962485</v>
+        <v>757.3316491962481</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471542</v>
+        <v>597.7236336471537</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693958</v>
+        <v>406.0748730693954</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577067</v>
+        <v>198.6295596577064</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662741</v>
+        <v>63.72957914662746</v>
       </c>
       <c r="I26" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2683996847217</v>
+        <v>171.2683996847219</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629837</v>
+        <v>375.9831015629838</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946303</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191343</v>
+        <v>926.3413643191345</v>
       </c>
       <c r="N26" t="n">
         <v>1213.060921153725</v>
@@ -6260,10 +6260,10 @@
         <v>1735.75648745189</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.572351998503</v>
+        <v>1501.572351998502</v>
       </c>
       <c r="X26" t="n">
         <v>1353.778677628125</v>
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.7017779609851</v>
+        <v>225.3339359890531</v>
       </c>
       <c r="C27" t="n">
-        <v>196.7017779609851</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D27" t="n">
         <v>35.92166172201684</v>
@@ -6309,7 +6309,7 @@
         <v>73.91372875432148</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2852937261398</v>
+        <v>191.2852937261397</v>
       </c>
       <c r="M27" t="n">
         <v>373.0070382066378</v>
@@ -6330,25 +6330,25 @@
         <v>793.3606943740705</v>
       </c>
       <c r="S27" t="n">
-        <v>748.6018335252401</v>
+        <v>777.2339915533083</v>
       </c>
       <c r="T27" t="n">
-        <v>747.0834271839567</v>
+        <v>560.0923764564363</v>
       </c>
       <c r="U27" t="n">
-        <v>723.0823352638583</v>
+        <v>320.4680757807492</v>
       </c>
       <c r="V27" t="n">
-        <v>695.625825923081</v>
+        <v>293.0115664399719</v>
       </c>
       <c r="W27" t="n">
-        <v>426.2272566533724</v>
+        <v>239.2362059258519</v>
       </c>
       <c r="X27" t="n">
-        <v>206.7192622700688</v>
+        <v>235.3514202981368</v>
       </c>
       <c r="Y27" t="n">
-        <v>196.7017779609851</v>
+        <v>225.3339359890531</v>
       </c>
     </row>
     <row r="28">
@@ -6358,73 +6358,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.41321716505087</v>
+        <v>71.41321716505081</v>
       </c>
       <c r="C28" t="n">
-        <v>117.9529149041507</v>
+        <v>71.41321716505081</v>
       </c>
       <c r="D28" t="n">
-        <v>117.9529149041507</v>
+        <v>71.41321716505081</v>
       </c>
       <c r="E28" t="n">
-        <v>117.9529149041507</v>
+        <v>71.41321716505081</v>
       </c>
       <c r="F28" t="n">
-        <v>191.7476084092409</v>
+        <v>71.41321716505081</v>
       </c>
       <c r="G28" t="n">
-        <v>191.7476084092409</v>
+        <v>71.41321716505081</v>
       </c>
       <c r="H28" t="n">
-        <v>238.9150883198914</v>
+        <v>71.41321716505081</v>
       </c>
       <c r="I28" t="n">
-        <v>238.9150883198914</v>
+        <v>119.5455730840039</v>
       </c>
       <c r="J28" t="n">
-        <v>238.9150883198914</v>
+        <v>119.5455730840039</v>
       </c>
       <c r="K28" t="n">
-        <v>238.9150883198914</v>
+        <v>119.5455730840039</v>
       </c>
       <c r="L28" t="n">
-        <v>238.9150883198914</v>
+        <v>119.5455730840039</v>
       </c>
       <c r="M28" t="n">
-        <v>266.2898381224434</v>
+        <v>119.5455730840039</v>
       </c>
       <c r="N28" t="n">
-        <v>266.2898381224434</v>
+        <v>119.5455730840039</v>
       </c>
       <c r="O28" t="n">
-        <v>266.2898381224434</v>
+        <v>256.3464833623377</v>
       </c>
       <c r="P28" t="n">
-        <v>266.2898381224434</v>
+        <v>256.3464833623377</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.2898381224434</v>
+        <v>256.3464833623377</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177465</v>
+        <v>244.0994937177468</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757515</v>
+        <v>233.7015767757518</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695573</v>
+        <v>157.7525140695575</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024693</v>
+        <v>125.7908590024695</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398189</v>
+        <v>48.17092928398201</v>
       </c>
       <c r="X28" t="n">
-        <v>39.6330719706387</v>
+        <v>39.63307197063876</v>
       </c>
       <c r="Y28" t="n">
         <v>35.92166172201684</v>
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1021.012157971341</v>
+        <v>1021.01215797134</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792736</v>
+        <v>882.892440079273</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962488</v>
+        <v>757.3316491962482</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471544</v>
+        <v>597.7236336471537</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693961</v>
+        <v>406.0748730693954</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6295596577068</v>
+        <v>198.6295596577064</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662741</v>
+        <v>63.72957914662748</v>
       </c>
       <c r="I29" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847219</v>
+        <v>171.2683996847217</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629838</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946299</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191343</v>
+        <v>926.3413643191341</v>
       </c>
       <c r="N29" t="n">
-        <v>1213.060921153725</v>
+        <v>1213.060921153724</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.669911688507</v>
+        <v>1458.669911688506</v>
       </c>
       <c r="P29" t="n">
         <v>1655.109002436483</v>
@@ -6503,10 +6503,10 @@
         <v>1501.572351998503</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>293.7328616024007</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="C30" t="n">
-        <v>293.7328616024007</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="D30" t="n">
-        <v>197.3513637686087</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="E30" t="n">
-        <v>197.3513637686087</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="F30" t="n">
-        <v>197.3513637686087</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="G30" t="n">
-        <v>197.3513637686087</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="H30" t="n">
-        <v>197.3513637686087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I30" t="n">
-        <v>88.90972702207205</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K30" t="n">
-        <v>73.9137287543215</v>
+        <v>73.91372875432148</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2852937261398</v>
+        <v>191.2852937261397</v>
       </c>
       <c r="M30" t="n">
-        <v>373.0070382066379</v>
+        <v>373.0070382066378</v>
       </c>
       <c r="N30" t="n">
         <v>577.9583061004876</v>
@@ -6561,31 +6561,31 @@
         <v>793.3606943740705</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.4450312622841</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="R30" t="n">
-        <v>786.4450312622841</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="S30" t="n">
-        <v>592.9223525824135</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="T30" t="n">
-        <v>591.4039462411301</v>
+        <v>713.3071374515295</v>
       </c>
       <c r="U30" t="n">
-        <v>567.4028543210318</v>
+        <v>473.6828367758424</v>
       </c>
       <c r="V30" t="n">
-        <v>539.9463449802545</v>
+        <v>230.6031186794765</v>
       </c>
       <c r="W30" t="n">
-        <v>486.1709844661344</v>
+        <v>176.8277581653564</v>
       </c>
       <c r="X30" t="n">
-        <v>482.2861988384195</v>
+        <v>172.9429725376414</v>
       </c>
       <c r="Y30" t="n">
-        <v>472.2687145293358</v>
+        <v>162.9254882285576</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C31" t="n">
-        <v>35.92166172201684</v>
+        <v>82.46135946111661</v>
       </c>
       <c r="D31" t="n">
-        <v>35.92166172201684</v>
+        <v>116.7279585908415</v>
       </c>
       <c r="E31" t="n">
-        <v>35.92166172201684</v>
+        <v>116.7279585908415</v>
       </c>
       <c r="F31" t="n">
-        <v>35.92166172201684</v>
+        <v>116.7279585908415</v>
       </c>
       <c r="G31" t="n">
-        <v>35.92166172201684</v>
+        <v>161.0466475327342</v>
       </c>
       <c r="H31" t="n">
-        <v>35.92166172201684</v>
+        <v>208.2141274433846</v>
       </c>
       <c r="I31" t="n">
-        <v>35.92166172201684</v>
+        <v>256.3464833623377</v>
       </c>
       <c r="J31" t="n">
-        <v>35.92166172201684</v>
+        <v>256.3464833623377</v>
       </c>
       <c r="K31" t="n">
-        <v>35.92166172201684</v>
+        <v>256.3464833623377</v>
       </c>
       <c r="L31" t="n">
-        <v>35.92166172201684</v>
+        <v>256.3464833623377</v>
       </c>
       <c r="M31" t="n">
-        <v>35.92166172201684</v>
+        <v>256.3464833623377</v>
       </c>
       <c r="N31" t="n">
-        <v>35.92166172201684</v>
+        <v>256.3464833623377</v>
       </c>
       <c r="O31" t="n">
-        <v>210.1709648111473</v>
+        <v>256.3464833623377</v>
       </c>
       <c r="P31" t="n">
-        <v>266.2898381224434</v>
+        <v>256.3464833623377</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224434</v>
+        <v>256.3464833623377</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177465</v>
+        <v>244.0994937177468</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757515</v>
+        <v>233.7015767757518</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695573</v>
+        <v>157.7525140695576</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024693</v>
+        <v>125.7908590024695</v>
       </c>
       <c r="W31" t="n">
-        <v>48.1709292839819</v>
+        <v>48.17092928398202</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063871</v>
+        <v>39.63307197063877</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1021.01215797134</v>
+        <v>1021.012157971339</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792729</v>
+        <v>882.8924400792728</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962481</v>
+        <v>757.331649196248</v>
       </c>
       <c r="E32" t="n">
         <v>597.7236336471537</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693955</v>
+        <v>406.0748730693954</v>
       </c>
       <c r="G32" t="n">
         <v>198.6295596577065</v>
       </c>
       <c r="H32" t="n">
-        <v>63.7295791466274</v>
+        <v>63.72957914662717</v>
       </c>
       <c r="I32" t="n">
         <v>35.92166172201684</v>
@@ -6707,7 +6707,7 @@
         <v>634.0887466946299</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191341</v>
+        <v>926.341364319134</v>
       </c>
       <c r="N32" t="n">
         <v>1213.060921153725</v>
@@ -6728,10 +6728,10 @@
         <v>1781.898883169497</v>
       </c>
       <c r="T32" t="n">
-        <v>1772.810566182449</v>
+        <v>1772.810566182448</v>
       </c>
       <c r="U32" t="n">
-        <v>1735.75648745189</v>
+        <v>1735.756487451889</v>
       </c>
       <c r="V32" t="n">
         <v>1627.25870266288</v>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>225.3339359890531</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C33" t="n">
         <v>35.92166172201684</v>
@@ -6780,13 +6780,13 @@
         <v>35.92166172201684</v>
       </c>
       <c r="K33" t="n">
-        <v>73.9137287543215</v>
+        <v>73.91372875432148</v>
       </c>
       <c r="L33" t="n">
-        <v>191.2852937261398</v>
+        <v>191.2852937261397</v>
       </c>
       <c r="M33" t="n">
-        <v>373.0070382066379</v>
+        <v>373.0070382066378</v>
       </c>
       <c r="N33" t="n">
         <v>577.9583061004876</v>
@@ -6810,19 +6810,19 @@
         <v>598.3196093529165</v>
       </c>
       <c r="U33" t="n">
-        <v>499.0039287076841</v>
+        <v>574.3185174328181</v>
       </c>
       <c r="V33" t="n">
-        <v>471.5474193669069</v>
+        <v>331.2387993364522</v>
       </c>
       <c r="W33" t="n">
-        <v>417.7720588527869</v>
+        <v>277.4634388223322</v>
       </c>
       <c r="X33" t="n">
-        <v>413.8872732250719</v>
+        <v>57.95544443902855</v>
       </c>
       <c r="Y33" t="n">
-        <v>403.8697889159882</v>
+        <v>47.9379601299449</v>
       </c>
     </row>
     <row r="34">
@@ -6835,70 +6835,70 @@
         <v>35.92166172201684</v>
       </c>
       <c r="C34" t="n">
-        <v>35.92166172201684</v>
+        <v>82.46135946111667</v>
       </c>
       <c r="D34" t="n">
-        <v>35.92166172201684</v>
+        <v>150.0628426142655</v>
       </c>
       <c r="E34" t="n">
-        <v>35.92166172201684</v>
+        <v>150.0628426142655</v>
       </c>
       <c r="F34" t="n">
-        <v>35.92166172201684</v>
+        <v>212.0277944204442</v>
       </c>
       <c r="G34" t="n">
-        <v>35.92166172201684</v>
+        <v>256.346483362337</v>
       </c>
       <c r="H34" t="n">
-        <v>35.92166172201684</v>
+        <v>256.346483362337</v>
       </c>
       <c r="I34" t="n">
-        <v>35.92166172201684</v>
+        <v>256.346483362337</v>
       </c>
       <c r="J34" t="n">
-        <v>35.92166172201684</v>
+        <v>256.346483362337</v>
       </c>
       <c r="K34" t="n">
-        <v>35.92166172201684</v>
+        <v>256.346483362337</v>
       </c>
       <c r="L34" t="n">
-        <v>35.92166172201684</v>
+        <v>256.346483362337</v>
       </c>
       <c r="M34" t="n">
-        <v>35.92166172201684</v>
+        <v>256.346483362337</v>
       </c>
       <c r="N34" t="n">
-        <v>35.92166172201684</v>
+        <v>256.346483362337</v>
       </c>
       <c r="O34" t="n">
-        <v>210.1709648111473</v>
+        <v>256.346483362337</v>
       </c>
       <c r="P34" t="n">
-        <v>266.2898381224434</v>
+        <v>256.346483362337</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.2898381224434</v>
+        <v>256.346483362337</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="S34" t="n">
-        <v>244.0994937177465</v>
+        <v>244.0994937177463</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757515</v>
+        <v>233.7015767757513</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695573</v>
+        <v>157.7525140695572</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024693</v>
+        <v>125.7908590024692</v>
       </c>
       <c r="W34" t="n">
-        <v>48.1709292839819</v>
+        <v>48.17092928398183</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063871</v>
+        <v>39.63307197063867</v>
       </c>
       <c r="Y34" t="n">
         <v>35.92166172201684</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0119765837461</v>
+        <v>623.011976583746</v>
       </c>
       <c r="C35" t="n">
         <v>544.0768043248354</v>
@@ -6926,43 +6926,43 @@
         <v>244.8128742144263</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55210643589363</v>
+        <v>96.55210643589356</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I35" t="n">
-        <v>51.58890486516577</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J35" t="n">
-        <v>51.58890486516577</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K35" t="n">
-        <v>128.294658500478</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="L35" t="n">
-        <v>175.0679967307719</v>
+        <v>67.61000978826425</v>
       </c>
       <c r="M35" t="n">
-        <v>432.9218072606546</v>
+        <v>220.0390131282286</v>
       </c>
       <c r="N35" t="n">
-        <v>690.7756177905374</v>
+        <v>477.8928236581112</v>
       </c>
       <c r="O35" t="n">
-        <v>948.6294283204201</v>
+        <v>735.7466341879938</v>
       </c>
       <c r="P35" t="n">
-        <v>948.6294283204201</v>
+        <v>735.7466341879938</v>
       </c>
       <c r="Q35" t="n">
-        <v>948.6294283204201</v>
+        <v>916.3070177972818</v>
       </c>
       <c r="R35" t="n">
-        <v>948.6294283204201</v>
+        <v>992.7342642024651</v>
       </c>
       <c r="S35" t="n">
-        <v>992.7342642024655</v>
+        <v>992.7342642024651</v>
       </c>
       <c r="T35" t="n">
         <v>1041.833577898516</v>
@@ -6971,16 +6971,16 @@
         <v>1041.833577898516</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5203387426625</v>
+        <v>992.520338742662</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0185337114406</v>
+        <v>926.0185337114403</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4094049742196</v>
+        <v>837.4094049742193</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0701215665501</v>
+        <v>726.07012156655</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>134.4748575427294</v>
+        <v>345.1287248544662</v>
       </c>
       <c r="C36" t="n">
-        <v>134.4748575427294</v>
+        <v>155.7164505874299</v>
       </c>
       <c r="D36" t="n">
-        <v>134.4748575427294</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="E36" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K36" t="n">
-        <v>58.82873859027498</v>
+        <v>58.82873859027495</v>
       </c>
       <c r="L36" t="n">
-        <v>176.2003035620933</v>
+        <v>176.2003035620932</v>
       </c>
       <c r="M36" t="n">
-        <v>357.9220480425914</v>
+        <v>357.9220480425913</v>
       </c>
       <c r="N36" t="n">
         <v>562.873315936441</v>
@@ -7041,25 +7041,25 @@
         <v>778.2757042100239</v>
       </c>
       <c r="S36" t="n">
-        <v>778.2757042100239</v>
+        <v>584.7530255301533</v>
       </c>
       <c r="T36" t="n">
-        <v>778.2757042100239</v>
+        <v>584.7530255301533</v>
       </c>
       <c r="U36" t="n">
-        <v>538.6514035343369</v>
+        <v>345.1287248544662</v>
       </c>
       <c r="V36" t="n">
-        <v>538.6514035343369</v>
+        <v>345.1287248544662</v>
       </c>
       <c r="W36" t="n">
-        <v>538.6514035343369</v>
+        <v>345.1287248544662</v>
       </c>
       <c r="X36" t="n">
-        <v>538.6514035343369</v>
+        <v>345.1287248544662</v>
       </c>
       <c r="Y36" t="n">
-        <v>313.0107104696645</v>
+        <v>345.1287248544662</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="C37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="D37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="E37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="F37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27205564330168</v>
+        <v>39.27205564330161</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27205564330168</v>
+        <v>39.27205564330161</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="X37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="Y37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0119765837464</v>
+        <v>623.0119765837463</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248358</v>
+        <v>544.0768043248357</v>
       </c>
       <c r="D38" t="n">
         <v>477.7005590749671</v>
@@ -7160,64 +7160,64 @@
         <v>377.2770891590289</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144266</v>
+        <v>244.8128742144267</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55210643589363</v>
+        <v>96.55210643589356</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J38" t="n">
-        <v>20.83667155797032</v>
+        <v>43.91485383556142</v>
       </c>
       <c r="K38" t="n">
-        <v>278.690482087853</v>
+        <v>301.768664365444</v>
       </c>
       <c r="L38" t="n">
-        <v>536.5442926177357</v>
+        <v>348.5420025957379</v>
       </c>
       <c r="M38" t="n">
-        <v>617.4646033408874</v>
+        <v>429.4623133188896</v>
       </c>
       <c r="N38" t="n">
-        <v>782.8916747737532</v>
+        <v>687.3161238487722</v>
       </c>
       <c r="O38" t="n">
-        <v>817.1683584071827</v>
+        <v>721.5928074822018</v>
       </c>
       <c r="P38" t="n">
-        <v>817.1683584071827</v>
+        <v>976.0386714052348</v>
       </c>
       <c r="Q38" t="n">
-        <v>997.7287420164706</v>
+        <v>976.0386714052348</v>
       </c>
       <c r="R38" t="n">
-        <v>997.7287420164706</v>
+        <v>976.0386714052348</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.833577898516</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.833577898516</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="U38" t="n">
         <v>1041.833577898516</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426627</v>
+        <v>992.5203387426624</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0185337114409</v>
+        <v>926.0185337114406</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4094049742198</v>
+        <v>837.4094049742196</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665505</v>
+        <v>726.0701215665504</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>544.5922659425604</v>
+        <v>318.054371016786</v>
       </c>
       <c r="C39" t="n">
-        <v>355.1799916755241</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="D39" t="n">
-        <v>194.3998754365559</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83667155797032</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83667155797032</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83667155797032</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K39" t="n">
-        <v>58.82873859027498</v>
+        <v>58.82873859027495</v>
       </c>
       <c r="L39" t="n">
-        <v>176.2003035620933</v>
+        <v>176.2003035620932</v>
       </c>
       <c r="M39" t="n">
-        <v>357.9220480425914</v>
+        <v>357.9220480425913</v>
       </c>
       <c r="N39" t="n">
         <v>562.873315936441</v>
@@ -7272,31 +7272,31 @@
         <v>778.2757042100239</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.3600410982376</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="R39" t="n">
-        <v>771.3600410982376</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="S39" t="n">
-        <v>771.3600410982376</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="T39" t="n">
-        <v>771.3600410982376</v>
+        <v>561.134089113152</v>
       </c>
       <c r="U39" t="n">
-        <v>771.3600410982376</v>
+        <v>561.134089113152</v>
       </c>
       <c r="V39" t="n">
-        <v>771.3600410982376</v>
+        <v>318.054371016786</v>
       </c>
       <c r="W39" t="n">
-        <v>771.3600410982376</v>
+        <v>318.054371016786</v>
       </c>
       <c r="X39" t="n">
-        <v>770.2329590072327</v>
+        <v>318.054371016786</v>
       </c>
       <c r="Y39" t="n">
-        <v>544.5922659425604</v>
+        <v>318.054371016786</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="O40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="P40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="R40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="S40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27205564330168</v>
+        <v>39.27205564330161</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27205564330168</v>
+        <v>39.27205564330161</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
     </row>
     <row r="41">
@@ -7415,19 +7415,19 @@
         <v>422.6396211673108</v>
       </c>
       <c r="L41" t="n">
-        <v>512.0035110870335</v>
+        <v>707.999806166818</v>
       </c>
       <c r="M41" t="n">
-        <v>831.5106685793985</v>
+        <v>905.3961488931437</v>
       </c>
       <c r="N41" t="n">
-        <v>906.8979185126366</v>
+        <v>980.7833988263818</v>
       </c>
       <c r="O41" t="n">
-        <v>1179.76144891528</v>
+        <v>1253.646929229025</v>
       </c>
       <c r="P41" t="n">
-        <v>1403.455079531117</v>
+        <v>1253.646929229025</v>
       </c>
       <c r="Q41" t="n">
         <v>1403.455079531117</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.06910159062234</v>
+        <v>290.4688719082949</v>
       </c>
       <c r="C42" t="n">
-        <v>28.06910159062234</v>
+        <v>290.4688719082949</v>
       </c>
       <c r="D42" t="n">
-        <v>28.06910159062234</v>
+        <v>290.4688719082949</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06910159062234</v>
+        <v>290.4688719082949</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06910159062234</v>
+        <v>130.041155625539</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06910159062234</v>
+        <v>130.041155625539</v>
       </c>
       <c r="H42" t="n">
         <v>28.06910159062234</v>
@@ -7491,13 +7491,13 @@
         <v>28.06910159062234</v>
       </c>
       <c r="K42" t="n">
-        <v>66.061168622927</v>
+        <v>66.06116862292698</v>
       </c>
       <c r="L42" t="n">
-        <v>183.4327335947453</v>
+        <v>183.4327335947452</v>
       </c>
       <c r="M42" t="n">
-        <v>365.1544780752434</v>
+        <v>365.1544780752433</v>
       </c>
       <c r="N42" t="n">
         <v>570.1057459690931</v>
@@ -7512,28 +7512,28 @@
         <v>785.508134242676</v>
       </c>
       <c r="R42" t="n">
-        <v>695.5115181705697</v>
+        <v>785.508134242676</v>
       </c>
       <c r="S42" t="n">
-        <v>695.5115181705697</v>
+        <v>785.508134242676</v>
       </c>
       <c r="T42" t="n">
-        <v>695.5115181705697</v>
+        <v>785.508134242676</v>
       </c>
       <c r="U42" t="n">
-        <v>695.5115181705697</v>
+        <v>785.508134242676</v>
       </c>
       <c r="V42" t="n">
-        <v>695.5115181705697</v>
+        <v>785.508134242676</v>
       </c>
       <c r="W42" t="n">
-        <v>426.1129489008611</v>
+        <v>516.1095649729673</v>
       </c>
       <c r="X42" t="n">
-        <v>206.6049545175574</v>
+        <v>516.1095649729673</v>
       </c>
       <c r="Y42" t="n">
-        <v>206.6049545175574</v>
+        <v>290.4688719082949</v>
       </c>
     </row>
     <row r="43">
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>90.8151969015172</v>
+        <v>109.7017828165704</v>
       </c>
       <c r="C43" t="n">
-        <v>90.8151969015172</v>
+        <v>109.7017828165704</v>
       </c>
       <c r="D43" t="n">
-        <v>90.8151969015172</v>
+        <v>109.7017828165704</v>
       </c>
       <c r="E43" t="n">
-        <v>90.8151969015172</v>
+        <v>109.7017828165704</v>
       </c>
       <c r="F43" t="n">
-        <v>90.8151969015172</v>
+        <v>109.7017828165704</v>
       </c>
       <c r="G43" t="n">
-        <v>90.8151969015172</v>
+        <v>109.7017828165704</v>
       </c>
       <c r="H43" t="n">
-        <v>90.8151969015172</v>
+        <v>109.7017828165704</v>
       </c>
       <c r="I43" t="n">
-        <v>90.8151969015172</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="J43" t="n">
-        <v>90.8151969015172</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="K43" t="n">
-        <v>90.8151969015172</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="L43" t="n">
-        <v>90.8151969015172</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="M43" t="n">
-        <v>90.8151969015172</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="N43" t="n">
-        <v>90.8151969015172</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="O43" t="n">
-        <v>90.8151969015172</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="P43" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="R43" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="S43" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="T43" t="n">
         <v>130.1759968085602</v>
@@ -7609,10 +7609,10 @@
         <v>28.06910159062234</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06910159062234</v>
+        <v>46.9556875056755</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06910159062234</v>
+        <v>46.9556875056755</v>
       </c>
     </row>
     <row r="44">
@@ -7646,31 +7646,31 @@
         <v>28.06910159062234</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06910159062234</v>
+        <v>190.670379421188</v>
       </c>
       <c r="K44" t="n">
-        <v>162.6212326006834</v>
+        <v>372.9622606416714</v>
       </c>
       <c r="L44" t="n">
-        <v>447.9814176001905</v>
+        <v>658.3224456411785</v>
       </c>
       <c r="M44" t="n">
-        <v>767.4885750925555</v>
+        <v>977.8296031335435</v>
       </c>
       <c r="N44" t="n">
-        <v>842.8758250257936</v>
+        <v>1291.803699835995</v>
       </c>
       <c r="O44" t="n">
-        <v>1115.739355428437</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="P44" t="n">
-        <v>1339.432986044274</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="Q44" t="n">
-        <v>1339.432986044274</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="R44" t="n">
-        <v>1385.107999142262</v>
+        <v>1371.755396567412</v>
       </c>
       <c r="S44" t="n">
         <v>1385.107999142262</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>362.4124217081761</v>
+        <v>315.5006443799191</v>
       </c>
       <c r="C45" t="n">
-        <v>362.4124217081761</v>
+        <v>315.5006443799191</v>
       </c>
       <c r="D45" t="n">
-        <v>201.6323054692079</v>
+        <v>315.5006443799191</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06910159062234</v>
+        <v>315.5006443799191</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06910159062234</v>
+        <v>155.0729280971632</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06910159062234</v>
+        <v>155.0729280971632</v>
       </c>
       <c r="H45" t="n">
         <v>28.06910159062234</v>
@@ -7728,13 +7728,13 @@
         <v>28.06910159062234</v>
       </c>
       <c r="K45" t="n">
-        <v>66.061168622927</v>
+        <v>66.06116862292698</v>
       </c>
       <c r="L45" t="n">
-        <v>183.4327335947453</v>
+        <v>183.4327335947452</v>
       </c>
       <c r="M45" t="n">
-        <v>365.1544780752434</v>
+        <v>365.1544780752433</v>
       </c>
       <c r="N45" t="n">
         <v>570.1057459690931</v>
@@ -7758,19 +7758,19 @@
         <v>785.508134242676</v>
       </c>
       <c r="U45" t="n">
-        <v>785.508134242676</v>
+        <v>567.1087805341009</v>
       </c>
       <c r="V45" t="n">
-        <v>785.508134242676</v>
+        <v>567.1087805341009</v>
       </c>
       <c r="W45" t="n">
-        <v>759.5406911531666</v>
+        <v>541.1413374445915</v>
       </c>
       <c r="X45" t="n">
-        <v>540.0326967698629</v>
+        <v>541.1413374445915</v>
       </c>
       <c r="Y45" t="n">
-        <v>540.0326967698629</v>
+        <v>315.5006443799191</v>
       </c>
     </row>
     <row r="46">
@@ -7786,52 +7786,52 @@
         <v>28.06910159062234</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06910159062234</v>
+        <v>122.925124611632</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06910159062234</v>
+        <v>122.925124611632</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06910159062234</v>
+        <v>122.925124611632</v>
       </c>
       <c r="G46" t="n">
-        <v>99.6423304003759</v>
+        <v>122.925124611632</v>
       </c>
       <c r="H46" t="n">
-        <v>99.6423304003759</v>
+        <v>122.925124611632</v>
       </c>
       <c r="I46" t="n">
-        <v>130.1759968085602</v>
+        <v>122.925124611632</v>
       </c>
       <c r="J46" t="n">
-        <v>130.1759968085602</v>
+        <v>122.925124611632</v>
       </c>
       <c r="K46" t="n">
-        <v>130.1759968085602</v>
+        <v>122.925124611632</v>
       </c>
       <c r="L46" t="n">
-        <v>130.1759968085602</v>
+        <v>122.925124611632</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1759968085602</v>
+        <v>122.925124611632</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1759968085602</v>
+        <v>122.925124611632</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1759968085602</v>
+        <v>122.925124611632</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1759968085602</v>
+        <v>122.925124611632</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1759968085602</v>
+        <v>122.925124611632</v>
       </c>
       <c r="R46" t="n">
-        <v>130.1759968085602</v>
+        <v>122.925124611632</v>
       </c>
       <c r="S46" t="n">
-        <v>130.1759968085602</v>
+        <v>122.925124611632</v>
       </c>
       <c r="T46" t="n">
         <v>130.1759968085602</v>
@@ -9018,7 +9018,7 @@
         <v>292.1547529041439</v>
       </c>
       <c r="O15" t="n">
-        <v>255.2227828913208</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9255,7 +9255,7 @@
         <v>292.1547529041439</v>
       </c>
       <c r="O18" t="n">
-        <v>255.2227828913208</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9492,7 +9492,7 @@
         <v>292.1547529041439</v>
       </c>
       <c r="O21" t="n">
-        <v>255.2227828913208</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1547529041435</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.7575910532781</v>
+        <v>7.195214002696531</v>
       </c>
       <c r="C11" t="n">
         <v>171.8758480566236</v>
       </c>
       <c r="D11" t="n">
-        <v>159.4425103176721</v>
+        <v>159.442510317672</v>
       </c>
       <c r="E11" t="n">
-        <v>4.586885686499414</v>
+        <v>4.586885686499357</v>
       </c>
       <c r="F11" t="n">
-        <v>36.30722326487674</v>
+        <v>224.8696003154582</v>
       </c>
       <c r="G11" t="n">
-        <v>51.94581057046807</v>
+        <v>116.4928220799754</v>
       </c>
       <c r="H11" t="n">
-        <v>168.6883080494462</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.66716559384198</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.5307887271877</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550874</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065509</v>
+        <v>44.13476116065503</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673106</v>
+        <v>71.82086528673099</v>
       </c>
       <c r="V11" t="n">
-        <v>55.66234689947453</v>
+        <v>142.5501342845968</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012117</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X11" t="n">
-        <v>181.4530649701509</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.9559180938947</v>
+        <v>203.9559180938946</v>
       </c>
     </row>
     <row r="12">
@@ -23498,22 +23498,22 @@
         <v>171.8758480566236</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>119.043928400666</v>
       </c>
       <c r="E14" t="n">
-        <v>193.149262737081</v>
+        <v>193.1492627370809</v>
       </c>
       <c r="F14" t="n">
-        <v>68.90409511255203</v>
+        <v>224.8696003154582</v>
       </c>
       <c r="G14" t="n">
-        <v>51.94581057046807</v>
+        <v>240.5081876210496</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494462</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.66716559384198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718777</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>142.5501342845968</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012117</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.4530649701509</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.9559180938947</v>
+        <v>203.9559180938946</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1241811.002814457</v>
+        <v>1241811.002814458</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1241811.002814457</v>
+        <v>1241811.002814458</v>
       </c>
     </row>
     <row r="7">
@@ -26317,10 +26317,10 @@
         <v>176386.399035292</v>
       </c>
       <c r="D2" t="n">
-        <v>176386.3990352919</v>
+        <v>176386.399035292</v>
       </c>
       <c r="E2" t="n">
-        <v>151998.0178040959</v>
+        <v>151998.0178040958</v>
       </c>
       <c r="F2" t="n">
         <v>151998.0178040959</v>
@@ -26329,25 +26329,25 @@
         <v>176743.7097717071</v>
       </c>
       <c r="H2" t="n">
+        <v>176743.7097717072</v>
+      </c>
+      <c r="I2" t="n">
         <v>176743.7097717071</v>
-      </c>
-      <c r="I2" t="n">
-        <v>176743.709771707</v>
       </c>
       <c r="J2" t="n">
         <v>176743.7097717073</v>
       </c>
       <c r="K2" t="n">
-        <v>176743.7097717073</v>
+        <v>176743.7097717074</v>
       </c>
       <c r="L2" t="n">
-        <v>176743.7097717073</v>
+        <v>176743.7097717072</v>
       </c>
       <c r="M2" t="n">
         <v>176743.709771707</v>
       </c>
       <c r="N2" t="n">
-        <v>176743.709771707</v>
+        <v>176743.7097717071</v>
       </c>
       <c r="O2" t="n">
         <v>176743.7097717072</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>280312.8421842062</v>
+        <v>280312.8421842063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400482</v>
+        <v>95275.95397400478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400482</v>
+        <v>95275.95397400485</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145961</v>
+        <v>46874.16014145963</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660014</v>
+        <v>72403.48181660012</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26454,7 +26454,7 @@
         <v>401692.5905255168</v>
       </c>
       <c r="O4" t="n">
-        <v>402079.8338982546</v>
+        <v>402079.8338982545</v>
       </c>
       <c r="P4" t="n">
         <v>402079.8338982546</v>
@@ -26488,16 +26488,16 @@
         <v>38676.1388413194</v>
       </c>
       <c r="I5" t="n">
-        <v>38676.13884131939</v>
+        <v>38676.1388413194</v>
       </c>
       <c r="J5" t="n">
         <v>47453.77647951488</v>
       </c>
       <c r="K5" t="n">
-        <v>47453.7764795149</v>
+        <v>47453.77647951489</v>
       </c>
       <c r="L5" t="n">
-        <v>47453.7764795149</v>
+        <v>47453.77647951489</v>
       </c>
       <c r="M5" t="n">
         <v>40915.013666005</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298052.3426996433</v>
+        <v>-298056.8090838486</v>
       </c>
       <c r="C6" t="n">
-        <v>-298052.3426996433</v>
+        <v>-298056.8090838486</v>
       </c>
       <c r="D6" t="n">
-        <v>-298052.3426996433</v>
+        <v>-298056.8090838485</v>
       </c>
       <c r="E6" t="n">
-        <v>-488127.4611683834</v>
+        <v>-488436.7823179786</v>
       </c>
       <c r="F6" t="n">
-        <v>-207814.6189841771</v>
+        <v>-208123.9401337723</v>
       </c>
       <c r="G6" t="n">
-        <v>-358820.050113579</v>
+        <v>-358820.0501135789</v>
       </c>
       <c r="H6" t="n">
-        <v>-263544.0961395741</v>
+        <v>-263544.096139574</v>
       </c>
       <c r="I6" t="n">
         <v>-263544.0961395741</v>
@@ -26546,19 +26546,19 @@
         <v>-416872.6877354669</v>
       </c>
       <c r="K6" t="n">
-        <v>-273227.6842111257</v>
+        <v>-273227.6842111256</v>
       </c>
       <c r="L6" t="n">
-        <v>-368503.6381851305</v>
+        <v>-368503.6381851306</v>
       </c>
       <c r="M6" t="n">
         <v>-312738.0545612744</v>
       </c>
       <c r="N6" t="n">
-        <v>-265863.8944198148</v>
+        <v>-265863.8944198147</v>
       </c>
       <c r="O6" t="n">
-        <v>-341539.8426946724</v>
+        <v>-341539.8426946723</v>
       </c>
       <c r="P6" t="n">
         <v>-269136.3608780723</v>
@@ -26707,10 +26707,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K2" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="L2" t="n">
         <v>213.4669766680328</v>
@@ -26814,16 +26814,16 @@
         <v>449.0207715252104</v>
       </c>
       <c r="K4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="L4" t="n">
         <v>449.0207715252105</v>
       </c>
       <c r="M4" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="N4" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="O4" t="n">
         <v>350.8637698827793</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675061</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682451</v>
+        <v>58.59270017682454</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406673</v>
+        <v>63.30917227406667</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540815023</v>
+        <v>90.40537540815035</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28114,25 +28114,25 @@
         <v>76.75309993802784</v>
       </c>
       <c r="K11" t="n">
-        <v>6.684449518273205</v>
+        <v>6.684449518273219</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3165808583655</v>
       </c>
       <c r="M11" t="n">
-        <v>106.8246894514384</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>112.4136397442805</v>
       </c>
       <c r="O11" t="n">
-        <v>148.1108079991107</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P11" t="n">
-        <v>178.3296493245552</v>
+        <v>114.2496602305823</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.3296493245552</v>
+        <v>89.67545097688969</v>
       </c>
       <c r="R11" t="n">
         <v>178.3296493245552</v>
@@ -28169,28 +28169,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.3296493245552</v>
+        <v>175.4817308844856</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H12" t="n">
-        <v>54.24614969490533</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I12" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,16 +28211,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S12" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="T12" t="n">
-        <v>178.3296493245552</v>
+        <v>26.40782189532175</v>
       </c>
       <c r="U12" t="n">
         <v>178.3296493245552</v>
@@ -28263,31 +28263,31 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8230575663656</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I13" t="n">
         <v>164.8484353357569</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2289512774728</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K13" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="L13" t="n">
-        <v>115.0967233700288</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="M13" t="n">
-        <v>178.3296493245552</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N13" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="O13" t="n">
-        <v>37.45757960830505</v>
+        <v>56.75377470931447</v>
       </c>
       <c r="P13" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q13" t="n">
         <v>127.204364743505</v>
@@ -28348,28 +28348,28 @@
         <v>178.3296493245552</v>
       </c>
       <c r="J14" t="n">
-        <v>178.3296493245552</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K14" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3165808583654</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>32.58610515783697</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15.04365268017751</v>
+        <v>102.1328750066838</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.3296493245552</v>
+        <v>89.67545097688969</v>
       </c>
       <c r="R14" t="n">
         <v>178.3296493245552</v>
@@ -28409,13 +28409,13 @@
         <v>178.3296493245552</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>148.7444246896586</v>
@@ -28424,7 +28424,7 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3572203790713</v>
+        <v>62.42973162490709</v>
       </c>
       <c r="J15" t="n">
         <v>52.45818464705465</v>
@@ -28448,16 +28448,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668516</v>
       </c>
       <c r="R15" t="n">
-        <v>66.74727850008918</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S15" t="n">
+        <v>3.025074842490355</v>
+      </c>
+      <c r="T15" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="T15" t="n">
-        <v>26.40782189532175</v>
       </c>
       <c r="U15" t="n">
         <v>178.3296493245552</v>
@@ -28500,34 +28500,34 @@
         <v>178.3296493245552</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8230575663656</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I16" t="n">
-        <v>164.8484353357569</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2289512774728</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K16" t="n">
+        <v>144.3508081110966</v>
+      </c>
+      <c r="L16" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="L16" t="n">
-        <v>32.12940745055727</v>
       </c>
       <c r="M16" t="n">
         <v>25.19323846374673</v>
       </c>
       <c r="N16" t="n">
+        <v>16.49709222984362</v>
+      </c>
+      <c r="O16" t="n">
         <v>178.3296493245552</v>
       </c>
-      <c r="O16" t="n">
-        <v>144.063001255558</v>
-      </c>
       <c r="P16" t="n">
+        <v>58.4603693146088</v>
+      </c>
+      <c r="Q16" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>127.204364743505</v>
       </c>
       <c r="R16" t="n">
         <v>178.3296493245552</v>
@@ -28582,43 +28582,43 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I17" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J17" t="n">
         <v>76.75309993802784</v>
       </c>
       <c r="K17" t="n">
-        <v>6.684449518273205</v>
+        <v>8.479234347718393</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>106.8246894514384</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P17" t="n">
-        <v>203.606029730759</v>
+        <v>15.04365268017752</v>
       </c>
       <c r="Q17" t="n">
         <v>89.67545097688969</v>
       </c>
       <c r="R17" t="n">
-        <v>194.860438051743</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S17" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4644104852103</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U17" t="n">
-        <v>279.3102465855807</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V17" t="n">
         <v>297.4245917920612</v>
@@ -28652,19 +28652,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>66.84165064141271</v>
       </c>
       <c r="I18" t="n">
-        <v>55.19338426147862</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,10 +28685,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S18" t="n">
         <v>191.5874518930719</v>
@@ -28700,13 +28700,13 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>52.0865438648207</v>
       </c>
       <c r="W18" t="n">
-        <v>78.14220652643004</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>28.75053738888906</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28746,22 +28746,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K19" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L19" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M19" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N19" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O19" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P19" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q19" t="n">
         <v>127.204364743505</v>
@@ -28819,31 +28819,31 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I20" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J20" t="n">
         <v>76.75309993802784</v>
       </c>
       <c r="K20" t="n">
-        <v>195.2468265688547</v>
+        <v>180.958642310034</v>
       </c>
       <c r="L20" t="n">
-        <v>141.3165808583654</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P20" t="n">
-        <v>15.04365268017751</v>
+        <v>15.04365268017752</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.2585457662545</v>
+        <v>89.67545097688969</v>
       </c>
       <c r="R20" t="n">
         <v>194.860438051743</v>
@@ -28852,10 +28852,10 @@
         <v>227.5093375700639</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4644104852103</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1505146112862</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V20" t="n">
         <v>297.4245917920612</v>
@@ -28877,31 +28877,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>116.9777475443692</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>71.30239294425112</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J21" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,16 +28922,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S21" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T21" t="n">
-        <v>26.40782189532175</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U21" t="n">
         <v>237.2280576689302</v>
@@ -28940,7 +28940,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>78.14220652643004</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -28983,22 +28983,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K22" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L22" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M22" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N22" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O22" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P22" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q22" t="n">
         <v>127.204364743505</v>
@@ -29062,28 +29062,28 @@
         <v>76.75309993802784</v>
       </c>
       <c r="K23" t="n">
-        <v>6.684449518273205</v>
+        <v>6.684449518273219</v>
       </c>
       <c r="L23" t="n">
-        <v>141.3165808583653</v>
+        <v>141.3165808583655</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>112.4136397442803</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.04365268017751</v>
+        <v>29.46132094079881</v>
       </c>
       <c r="Q23" t="n">
-        <v>94.24363323354859</v>
+        <v>89.67545097688969</v>
       </c>
       <c r="R23" t="n">
-        <v>194.860438051743</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S23" t="n">
         <v>297.4245917920612</v>
@@ -29120,25 +29120,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>164.9141452102261</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,28 +29159,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668513</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S24" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T24" t="n">
-        <v>26.40782189532183</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U24" t="n">
-        <v>48.66568061834871</v>
+        <v>48.66568061834863</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>137.5865836398177</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>28.75053738888914</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29220,22 +29220,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K25" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L25" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M25" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N25" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O25" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P25" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q25" t="n">
         <v>127.204364743505</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="27">
@@ -29354,10 +29354,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29375,7 +29375,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J27" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S27" t="n">
-        <v>147.2761796527298</v>
+        <v>175.6220161005174</v>
       </c>
       <c r="T27" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="28">
@@ -29430,10 +29430,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="C28" t="n">
-        <v>213.4669766680328</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29442,64 +29442,64 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>213.4669766680328</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>168.7006242014745</v>
       </c>
       <c r="H28" t="n">
-        <v>213.4669766680328</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I28" t="n">
-        <v>164.8484353357569</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="J28" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K28" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L28" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M28" t="n">
-        <v>52.84450089056688</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N28" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O28" t="n">
-        <v>37.45757960830505</v>
+        <v>175.6403172631877</v>
       </c>
       <c r="P28" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q28" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R28" t="n">
-        <v>203.4231839810569</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="C29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="D29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="E29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="F29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="G29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="H29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="I29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="J29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="L29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="M29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="N29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="O29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="P29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="R29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680336</v>
       </c>
       <c r="S29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="30">
@@ -29588,13 +29588,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>63.7546322211245</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29606,13 +29606,13 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4669766680328</v>
+        <v>135.7171775925877</v>
       </c>
       <c r="U30" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X30" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="31">
@@ -29670,10 +29670,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>179.7953766443722</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29682,61 +29682,61 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.7006242014745</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="H31" t="n">
-        <v>165.8230575663656</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="I31" t="n">
-        <v>164.8484353357569</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="J31" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K31" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L31" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M31" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N31" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O31" t="n">
-        <v>213.4669766680328</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P31" t="n">
-        <v>115.1460999320796</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q31" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R31" t="n">
-        <v>203.4231839810569</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="32">
@@ -29825,10 +29825,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>164.8543589738169</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29849,7 +29849,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J33" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29882,16 +29882,16 @@
         <v>213.4669766680328</v>
       </c>
       <c r="U33" t="n">
-        <v>138.9055338301501</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V33" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>213.4669766680328</v>
       </c>
       <c r="X33" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>213.4669766680328</v>
@@ -29907,19 +29907,19 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>201.5177426287281</v>
       </c>
       <c r="G34" t="n">
-        <v>168.7006242014745</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H34" t="n">
         <v>165.8230575663656</v>
@@ -29931,28 +29931,28 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K34" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L34" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M34" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N34" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O34" t="n">
-        <v>213.4669766680328</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P34" t="n">
-        <v>115.1460999320796</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q34" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4231839810569</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S34" t="n">
         <v>213.4669766680328</v>
@@ -30004,37 +30004,37 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0596768448573</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J35" t="n">
         <v>76.75309993802784</v>
       </c>
       <c r="K35" t="n">
-        <v>84.16500874586129</v>
+        <v>6.684449518273219</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>178.7207068754859</v>
+        <v>72.23100264324508</v>
       </c>
       <c r="N35" t="n">
-        <v>184.3096571683279</v>
+        <v>184.3096571683278</v>
       </c>
       <c r="O35" t="n">
-        <v>225.8354817135891</v>
+        <v>225.835481713589</v>
       </c>
       <c r="P35" t="n">
-        <v>15.04365268017751</v>
+        <v>15.04365268017752</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.67545097688969</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="R35" t="n">
-        <v>194.860438051743</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0596768448573</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T35" t="n">
         <v>272.0596768448573</v>
@@ -30062,16 +30062,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>25.64133383741353</v>
       </c>
       <c r="E36" t="n">
-        <v>59.32576771488819</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30086,7 +30086,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J36" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,13 +30107,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9701989459033</v>
@@ -30131,7 +30131,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30153,7 +30153,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>174.4823379339712</v>
       </c>
       <c r="G37" t="n">
         <v>168.7006242014745</v>
@@ -30168,22 +30168,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K37" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L37" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M37" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N37" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O37" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P37" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q37" t="n">
         <v>127.204364743505</v>
@@ -30207,7 +30207,7 @@
         <v>272.0596768448573</v>
       </c>
       <c r="X37" t="n">
-        <v>257.4749111237672</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
         <v>217.1412728141684</v>
@@ -30244,28 +30244,28 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J38" t="n">
-        <v>76.75309993802784</v>
+        <v>100.0643951679179</v>
       </c>
       <c r="K38" t="n">
         <v>267.1428439929022</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2125982824129</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>90.94931464608857</v>
+        <v>184.3096571683278</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.04365268017751</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0596768448573</v>
+        <v>89.67545097688969</v>
       </c>
       <c r="R38" t="n">
         <v>194.860438051743</v>
@@ -30277,7 +30277,7 @@
         <v>222.4644104852103</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1505146112862</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V38" t="n">
         <v>272.0596768448573</v>
@@ -30302,13 +30302,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>19.00641730161377</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30317,13 +30317,13 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J39" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,31 +30344,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S39" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>216.1971031693757</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30399,28 +30399,28 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I40" t="n">
-        <v>164.8484353357569</v>
+        <v>200.4038910512814</v>
       </c>
       <c r="J40" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K40" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L40" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M40" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N40" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O40" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P40" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q40" t="n">
         <v>127.204364743505</v>
@@ -30432,7 +30432,7 @@
         <v>235.4354176286827</v>
       </c>
       <c r="T40" t="n">
-        <v>259.3163701561325</v>
+        <v>223.7609144406078</v>
       </c>
       <c r="U40" t="n">
         <v>272.0596768448573</v>
@@ -30487,10 +30487,10 @@
         <v>240.9968149183972</v>
       </c>
       <c r="L41" t="n">
-        <v>43.02075928225129</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="M41" t="n">
-        <v>240.9968149183972</v>
+        <v>117.6525575789637</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30499,10 +30499,10 @@
         <v>240.9968149183972</v>
       </c>
       <c r="P41" t="n">
+        <v>15.04365268017752</v>
+      </c>
+      <c r="Q41" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>89.67545097688969</v>
       </c>
       <c r="R41" t="n">
         <v>194.860438051743</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30548,19 +30548,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7337882414754</v>
+        <v>24.78145474690787</v>
       </c>
       <c r="I42" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,10 +30581,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R42" t="n">
-        <v>45.61198843904897</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S42" t="n">
         <v>191.5874518930719</v>
@@ -30602,10 +30602,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30636,28 +30636,28 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I43" t="n">
-        <v>164.8484353357569</v>
+        <v>185.5294595700901</v>
       </c>
       <c r="J43" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K43" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L43" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M43" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N43" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O43" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P43" t="n">
-        <v>80.98285258130728</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q43" t="n">
         <v>127.204364743505</v>
@@ -30669,7 +30669,7 @@
         <v>235.4354176286827</v>
       </c>
       <c r="T43" t="n">
-        <v>240.9968149183972</v>
+        <v>223.7609144406078</v>
       </c>
       <c r="U43" t="n">
         <v>240.9968149183972</v>
@@ -30681,7 +30681,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -30718,10 +30718,10 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J44" t="n">
-        <v>76.75309993802784</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="K44" t="n">
-        <v>142.5956929627793</v>
+        <v>190.8176628722968</v>
       </c>
       <c r="L44" t="n">
         <v>240.9968149183972</v>
@@ -30730,13 +30730,13 @@
         <v>240.9968149183972</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="O44" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>240.9968149183972</v>
+        <v>15.04365268017752</v>
       </c>
       <c r="Q44" t="n">
         <v>89.67545097688969</v>
@@ -30745,7 +30745,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="S44" t="n">
-        <v>227.5093375700639</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="T44" t="n">
         <v>240.9968149183972</v>
@@ -30773,31 +30773,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9064220865957964</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H45" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,10 +30818,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668513</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S45" t="n">
         <v>191.5874518930719</v>
@@ -30830,7 +30830,7 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280576689302</v>
+        <v>21.01269749744088</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -30839,10 +30839,10 @@
         <v>240.9968149183972</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30858,7 +30858,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>145.1826502507107</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -30867,34 +30867,34 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>240.9968149183972</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H46" t="n">
         <v>165.8230575663656</v>
       </c>
       <c r="I46" t="n">
-        <v>195.6905226167511</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J46" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K46" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L46" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M46" t="n">
-        <v>25.19323846374673</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N46" t="n">
-        <v>16.49709222984362</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O46" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P46" t="n">
-        <v>58.46036931460879</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q46" t="n">
         <v>127.204364743505</v>
@@ -30906,7 +30906,7 @@
         <v>235.4354176286827</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7609144406078</v>
+        <v>231.0850277708384</v>
       </c>
       <c r="U46" t="n">
         <v>240.9968149183972</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H11" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I11" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J11" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L11" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M11" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N11" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O11" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P11" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R11" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S11" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T11" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U11" t="n">
         <v>0.03256441192055314</v>
@@ -31835,28 +31835,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I12" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J12" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K12" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L12" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M12" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O12" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P12" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q12" t="n">
         <v>27.80117545144754</v>
@@ -31865,10 +31865,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S12" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U12" t="n">
         <v>0.01432853325218916</v>
@@ -31908,28 +31908,28 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H13" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J13" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K13" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L13" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M13" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N13" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O13" t="n">
         <v>25.80839749785128</v>
@@ -31941,16 +31941,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R13" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S13" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H14" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767062</v>
       </c>
       <c r="I14" t="n">
         <v>15.69299363208908</v>
@@ -32008,25 +32008,25 @@
         <v>71.4753224330604</v>
       </c>
       <c r="N14" t="n">
-        <v>72.63186787517631</v>
+        <v>72.6318678751763</v>
       </c>
       <c r="O14" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723879</v>
       </c>
       <c r="P14" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613058</v>
       </c>
       <c r="Q14" t="n">
         <v>43.95737672232045</v>
       </c>
       <c r="R14" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S14" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995069</v>
       </c>
       <c r="T14" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U14" t="n">
         <v>0.03256441192055314</v>
@@ -32072,28 +32072,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I15" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645658</v>
       </c>
       <c r="J15" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K15" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L15" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997494</v>
       </c>
       <c r="M15" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810431</v>
       </c>
       <c r="O15" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P15" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225409</v>
       </c>
       <c r="Q15" t="n">
         <v>27.80117545144754</v>
@@ -32105,7 +32105,7 @@
         <v>4.045422554868068</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841218</v>
       </c>
       <c r="U15" t="n">
         <v>0.01432853325218916</v>
@@ -32166,7 +32166,7 @@
         <v>28.62195768301064</v>
       </c>
       <c r="N16" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O16" t="n">
         <v>25.80839749785128</v>
@@ -32178,16 +32178,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R16" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S16" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831293</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210176</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H17" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I17" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J17" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L17" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M17" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N17" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O17" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P17" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R17" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S17" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T17" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U17" t="n">
         <v>0.03256441192055314</v>
@@ -32309,28 +32309,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I18" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J18" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K18" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L18" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M18" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O18" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P18" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q18" t="n">
         <v>27.80117545144754</v>
@@ -32339,10 +32339,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S18" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U18" t="n">
         <v>0.01432853325218916</v>
@@ -32382,28 +32382,28 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H19" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J19" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K19" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L19" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M19" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N19" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O19" t="n">
         <v>25.80839749785128</v>
@@ -32415,16 +32415,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R19" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S19" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H20" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I20" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J20" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L20" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M20" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N20" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O20" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P20" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R20" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S20" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T20" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U20" t="n">
         <v>0.03256441192055314</v>
@@ -32546,28 +32546,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I21" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J21" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K21" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L21" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M21" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O21" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P21" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q21" t="n">
         <v>27.80117545144754</v>
@@ -32576,10 +32576,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S21" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U21" t="n">
         <v>0.01432853325218916</v>
@@ -32619,28 +32619,28 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H22" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J22" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K22" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L22" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M22" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N22" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O22" t="n">
         <v>25.80839749785128</v>
@@ -32652,16 +32652,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R22" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S22" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H23" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I23" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J23" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L23" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M23" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N23" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O23" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P23" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R23" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S23" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T23" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U23" t="n">
         <v>0.03256441192055314</v>
@@ -32783,28 +32783,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I24" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J24" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K24" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L24" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M24" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O24" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P24" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q24" t="n">
         <v>27.80117545144754</v>
@@ -32813,10 +32813,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S24" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U24" t="n">
         <v>0.01432853325218916</v>
@@ -32856,28 +32856,28 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H25" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J25" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K25" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L25" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M25" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N25" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O25" t="n">
         <v>25.80839749785128</v>
@@ -32889,16 +32889,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R25" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S25" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H26" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I26" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J26" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L26" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M26" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N26" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O26" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P26" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R26" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S26" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T26" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U26" t="n">
         <v>0.03256441192055314</v>
@@ -33020,28 +33020,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I27" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J27" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K27" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L27" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M27" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O27" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P27" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q27" t="n">
         <v>27.80117545144754</v>
@@ -33050,10 +33050,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S27" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U27" t="n">
         <v>0.01432853325218916</v>
@@ -33093,28 +33093,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H28" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J28" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K28" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L28" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M28" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N28" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O28" t="n">
         <v>25.80839749785128</v>
@@ -33126,16 +33126,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R28" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S28" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H29" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I29" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J29" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K29" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L29" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M29" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N29" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O29" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P29" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R29" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S29" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T29" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U29" t="n">
         <v>0.03256441192055314</v>
@@ -33257,28 +33257,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I30" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J30" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K30" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L30" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M30" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O30" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P30" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q30" t="n">
         <v>27.80117545144754</v>
@@ -33287,10 +33287,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S30" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U30" t="n">
         <v>0.01432853325218916</v>
@@ -33330,28 +33330,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H31" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J31" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K31" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L31" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M31" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N31" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O31" t="n">
         <v>25.80839749785128</v>
@@ -33363,16 +33363,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R31" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S31" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H32" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I32" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J32" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L32" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M32" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O32" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P32" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R32" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S32" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T32" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U32" t="n">
         <v>0.03256441192055314</v>
@@ -33494,28 +33494,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I33" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J33" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K33" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L33" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O33" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P33" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q33" t="n">
         <v>27.80117545144754</v>
@@ -33524,10 +33524,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S33" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U33" t="n">
         <v>0.01432853325218916</v>
@@ -33567,28 +33567,28 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H34" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J34" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K34" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L34" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M34" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N34" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O34" t="n">
         <v>25.80839749785128</v>
@@ -33600,16 +33600,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R34" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S34" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H35" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I35" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J35" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M35" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N35" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O35" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P35" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R35" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S35" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T35" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U35" t="n">
         <v>0.03256441192055314</v>
@@ -33731,28 +33731,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I36" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J36" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K36" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L36" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O36" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P36" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q36" t="n">
         <v>27.80117545144754</v>
@@ -33761,10 +33761,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S36" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U36" t="n">
         <v>0.01432853325218916</v>
@@ -33804,28 +33804,28 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H37" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J37" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K37" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L37" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M37" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N37" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O37" t="n">
         <v>25.80839749785128</v>
@@ -33837,16 +33837,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R37" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S37" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H38" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I38" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J38" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M38" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N38" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O38" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P38" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R38" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S38" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T38" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U38" t="n">
         <v>0.03256441192055314</v>
@@ -33968,28 +33968,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I39" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J39" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K39" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L39" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O39" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P39" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q39" t="n">
         <v>27.80117545144754</v>
@@ -33998,10 +33998,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S39" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U39" t="n">
         <v>0.01432853325218916</v>
@@ -34041,28 +34041,28 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H40" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J40" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K40" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L40" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M40" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N40" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O40" t="n">
         <v>25.80839749785128</v>
@@ -34074,16 +34074,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R40" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S40" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H41" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I41" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M41" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O41" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P41" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R41" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S41" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T41" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U41" t="n">
         <v>0.03256441192055314</v>
@@ -34205,28 +34205,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I42" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J42" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K42" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L42" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O42" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P42" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q42" t="n">
         <v>27.80117545144754</v>
@@ -34235,10 +34235,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S42" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U42" t="n">
         <v>0.01432853325218916</v>
@@ -34278,28 +34278,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H43" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J43" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K43" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L43" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M43" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N43" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O43" t="n">
         <v>25.80839749785128</v>
@@ -34311,16 +34311,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R43" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S43" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069144</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H44" t="n">
-        <v>4.168753544767063</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I44" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302563</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690869</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M44" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517631</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O44" t="n">
-        <v>68.5842132372388</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613059</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R44" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S44" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T44" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U44" t="n">
         <v>0.03256441192055314</v>
@@ -34442,28 +34442,28 @@
         <v>2.103428681421368</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645659</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J45" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K45" t="n">
-        <v>35.16890724972321</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L45" t="n">
-        <v>47.28893590997495</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810432</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O45" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P45" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q45" t="n">
         <v>27.80117545144754</v>
@@ -34472,10 +34472,10 @@
         <v>13.52231444786598</v>
       </c>
       <c r="S45" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U45" t="n">
         <v>0.01432853325218916</v>
@@ -34515,28 +34515,28 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H46" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222539</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J46" t="n">
         <v>12.90917850146574</v>
       </c>
       <c r="K46" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L46" t="n">
-        <v>27.14629101362618</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M46" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N46" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O46" t="n">
         <v>25.80839749785128</v>
@@ -34548,16 +34548,16 @@
         <v>15.28950021563597</v>
       </c>
       <c r="R46" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S46" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210177</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221612</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="M11" t="n">
+        <v>81.73768759914314</v>
+      </c>
+      <c r="N11" t="n">
         <v>188.5623770505815</v>
       </c>
-      <c r="N11" t="n">
-        <v>76.14873730630111</v>
-      </c>
       <c r="O11" t="n">
-        <v>182.7337207601506</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="P11" t="n">
-        <v>163.2859966443777</v>
+        <v>99.20600755040473</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.6541983476655</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
@@ -35498,13 +35498,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N12" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O12" t="n">
         <v>133.0740275578655</v>
       </c>
       <c r="P12" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35559,28 +35559,28 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.50659175818963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.10069804708247</v>
       </c>
       <c r="K13" t="n">
-        <v>111.3171807686845</v>
+        <v>111.3171807686846</v>
       </c>
       <c r="L13" t="n">
-        <v>82.96731591947152</v>
+        <v>146.200241873998</v>
       </c>
       <c r="M13" t="n">
-        <v>153.1364108608085</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>161.8325570947116</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>19.29619510100941</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5765493865273</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>171.645199806282</v>
+        <v>171.6451998062821</v>
       </c>
       <c r="L14" t="n">
-        <v>47.24579619221612</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="M14" t="n">
-        <v>81.73768759914316</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="N14" t="n">
-        <v>188.5623770505815</v>
+        <v>76.1487373063011</v>
       </c>
       <c r="O14" t="n">
-        <v>67.20901791887694</v>
+        <v>34.62291276103996</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>87.08922232650627</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.6541983476655</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515621</v>
       </c>
       <c r="L15" t="n">
         <v>118.55713633517</v>
@@ -35738,10 +35738,10 @@
         <v>188.5623770505815</v>
       </c>
       <c r="O15" t="n">
-        <v>133.0740275578656</v>
+        <v>133.0740275578655</v>
       </c>
       <c r="P15" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35793,37 +35793,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.629025123080746</v>
+        <v>9.629025123080803</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.50659175818963</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.48121398879837</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.10069804708247</v>
       </c>
       <c r="K16" t="n">
-        <v>111.3171807686845</v>
+        <v>77.33833955522594</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>146.200241873998</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>161.8325570947116</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>106.6054216472529</v>
+        <v>140.8720697162502</v>
       </c>
       <c r="P16" t="n">
-        <v>119.8692800099464</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>51.12528458105024</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.42777687366399</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.794784829445174</v>
       </c>
       <c r="L17" t="n">
-        <v>47.24579619221612</v>
+        <v>47.2457961922161</v>
       </c>
       <c r="M17" t="n">
+        <v>81.73768759914314</v>
+      </c>
+      <c r="N17" t="n">
+        <v>76.14873730630109</v>
+      </c>
+      <c r="O17" t="n">
         <v>188.5623770505815</v>
       </c>
-      <c r="N17" t="n">
-        <v>188.5623770505815</v>
-      </c>
-      <c r="O17" t="n">
-        <v>34.62291276103997</v>
-      </c>
       <c r="P17" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5641537403183</v>
       </c>
       <c r="S17" t="n">
         <v>69.91525422199729</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.96018130685094</v>
       </c>
       <c r="U17" t="n">
-        <v>29.15973197429451</v>
+        <v>47.27407718077497</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L18" t="n">
         <v>118.55713633517</v>
@@ -35975,10 +35975,10 @@
         <v>188.5623770505815</v>
       </c>
       <c r="O18" t="n">
-        <v>133.0740275578656</v>
+        <v>133.0740275578655</v>
       </c>
       <c r="P18" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.42777687366399</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>174.2741927917608</v>
+      </c>
+      <c r="L20" t="n">
+        <v>47.2457961922161</v>
+      </c>
+      <c r="M20" t="n">
+        <v>81.73768759914314</v>
+      </c>
+      <c r="N20" t="n">
+        <v>76.14873730630109</v>
+      </c>
+      <c r="O20" t="n">
         <v>188.5623770505815</v>
       </c>
-      <c r="L20" t="n">
-        <v>188.5623770505815</v>
-      </c>
-      <c r="M20" t="n">
-        <v>81.73768759914316</v>
-      </c>
-      <c r="N20" t="n">
-        <v>188.5623770505815</v>
-      </c>
-      <c r="O20" t="n">
-        <v>34.62291276103997</v>
-      </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>64.58309478936476</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36148,10 +36148,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>74.96018130685094</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>47.27407718077497</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L21" t="n">
         <v>118.55713633517</v>
@@ -36209,13 +36209,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N21" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O21" t="n">
-        <v>133.0740275578656</v>
+        <v>133.0740275578655</v>
       </c>
       <c r="P21" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.427776873664</v>
+        <v>56.42777687366399</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36364,22 +36364,22 @@
         <v>188.5623770505815</v>
       </c>
       <c r="M23" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914314</v>
       </c>
       <c r="N23" t="n">
-        <v>188.5623770505815</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O23" t="n">
-        <v>34.62291276103997</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>14.41766826062128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.568182256658897</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5641537403183</v>
       </c>
       <c r="S23" t="n">
         <v>69.91525422199729</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L24" t="n">
         <v>118.55713633517</v>
@@ -36446,13 +36446,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5623770505811</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="O24" t="n">
         <v>133.0740275578655</v>
       </c>
       <c r="P24" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>136.7138767300049</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7825271497596</v>
+        <v>206.7825271497595</v>
       </c>
       <c r="L26" t="n">
-        <v>260.7127728602489</v>
+        <v>260.7127728602488</v>
       </c>
       <c r="M26" t="n">
         <v>295.2046642671759</v>
       </c>
       <c r="N26" t="n">
-        <v>289.6157139743337</v>
+        <v>289.6157139743338</v>
       </c>
       <c r="O26" t="n">
         <v>248.0898894290727</v>
       </c>
       <c r="P26" t="n">
-        <v>198.4233239878553</v>
+        <v>198.4233239878552</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.7915256911431</v>
+        <v>123.791525691143</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861628982</v>
+        <v>18.60653861628975</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L27" t="n">
         <v>118.55713633517</v>
@@ -36689,7 +36689,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P27" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,10 +36726,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.85005600306468</v>
+        <v>35.85005600306462</v>
       </c>
       <c r="C28" t="n">
-        <v>47.00979569606042</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36738,16 +36738,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>74.54009444958612</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.64391910166715</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.61854133227583</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>27.65126242682015</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>138.1827376548826</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>10.04379268697585</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>136.7138767300049</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7825271497596</v>
+        <v>206.7825271497595</v>
       </c>
       <c r="L29" t="n">
-        <v>260.7127728602489</v>
+        <v>260.7127728602488</v>
       </c>
       <c r="M29" t="n">
         <v>295.2046642671759</v>
       </c>
       <c r="N29" t="n">
-        <v>289.6157139743339</v>
+        <v>289.6157139743338</v>
       </c>
       <c r="O29" t="n">
         <v>248.0898894290727</v>
       </c>
       <c r="P29" t="n">
-        <v>198.4233239878553</v>
+        <v>198.4233239878552</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.7915256911431</v>
+        <v>123.791525691143</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60653861628981</v>
+        <v>18.60653861629066</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L30" t="n">
         <v>118.55713633517</v>
@@ -36926,7 +36926,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P30" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36966,10 +36966,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>47.00979569606037</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>34.6127263936615</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36978,13 +36978,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.76635246655827</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.64391910166709</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.61854133227583</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -37002,16 +37002,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>176.0093970597277</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>56.68573061747082</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>10.04379268697585</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7138767300049</v>
+        <v>136.713876730005</v>
       </c>
       <c r="K32" t="n">
         <v>206.7825271497596</v>
@@ -37090,7 +37090,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628982</v>
+        <v>18.60653861628985</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L33" t="n">
         <v>118.55713633517</v>
@@ -37163,7 +37163,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P33" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,19 +37203,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.00979569606045</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>68.28432641732209</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.59086041028149</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.76635246655835</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37239,16 +37239,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>176.0093970597277</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>56.68573061747082</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.04379268697594</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.06286192646006</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>77.48055922758807</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.24579619221612</v>
+        <v>47.2457961922161</v>
       </c>
       <c r="M35" t="n">
-        <v>260.458394474629</v>
+        <v>153.9686902423882</v>
       </c>
       <c r="N35" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="O35" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>182.3842258679676</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>77.19923879311438</v>
       </c>
       <c r="S35" t="n">
-        <v>44.55033927479334</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.595266359647</v>
+        <v>49.59526635964706</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L36" t="n">
         <v>118.55713633517</v>
@@ -37400,7 +37400,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P36" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>35.55545571552457</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37503,7 +37503,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>35.55545571552469</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -37540,40 +37540,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>23.31129522989</v>
       </c>
       <c r="K38" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="L38" t="n">
-        <v>260.458394474629</v>
+        <v>47.2457961922161</v>
       </c>
       <c r="M38" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914314</v>
       </c>
       <c r="N38" t="n">
-        <v>167.0980519523897</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="O38" t="n">
-        <v>34.62291276103997</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>257.0160241646798</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3842258679676</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.55033927479334</v>
+        <v>44.5503392747934</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90916223357109</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L39" t="n">
         <v>118.55713633517</v>
@@ -37637,7 +37637,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P39" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>35.55545571552457</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>35.55545571552469</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37783,22 +37783,22 @@
         <v>234.312365400124</v>
       </c>
       <c r="L41" t="n">
-        <v>90.26655547446741</v>
+        <v>288.2426111106133</v>
       </c>
       <c r="M41" t="n">
-        <v>322.7345025175404</v>
+        <v>199.3902451781069</v>
       </c>
       <c r="N41" t="n">
-        <v>76.14873730630111</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O41" t="n">
         <v>275.6197276794372</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9531622382197</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>151.3213639415075</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L42" t="n">
         <v>118.55713633517</v>
@@ -37874,7 +37874,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P42" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>20.6810242343332</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>22.52248326669849</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>17.23590047778941</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37977,7 +37977,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>19.07735951015471</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.2437149803694</v>
       </c>
       <c r="K44" t="n">
-        <v>135.9112434445061</v>
+        <v>184.1332133540236</v>
       </c>
       <c r="L44" t="n">
         <v>288.2426111106133</v>
@@ -38026,22 +38026,22 @@
         <v>322.7345025175404</v>
       </c>
       <c r="N44" t="n">
-        <v>76.14873730630111</v>
+        <v>317.1455522246983</v>
       </c>
       <c r="O44" t="n">
-        <v>275.6197276794372</v>
+        <v>34.62291276103994</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382197</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.13637686665429</v>
+        <v>46.13637686665428</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.4874773483333</v>
       </c>
       <c r="T44" t="n">
         <v>18.53240443318696</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L45" t="n">
         <v>118.55713633517</v>
@@ -38111,7 +38111,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P45" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>95.81416466768653</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38163,13 +38163,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.29619071692279</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>30.84208728099427</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>7.324113330230533</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
